--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,7 +119,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 -I  trimestre de 2021</t>
+    <t>I trimestre 2005 -II  trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -732,6 +732,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -777,7 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -825,7 +838,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="16" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -838,7 +850,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="16" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -850,11 +861,11 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -866,10 +877,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1216,10 +1227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BN25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH34" sqref="BH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,241 +1298,243 @@
     <col min="60" max="61" width="15.5703125" style="2" customWidth="1"/>
     <col min="62" max="64" width="16.7109375" style="2" customWidth="1"/>
     <col min="65" max="65" width="16.42578125" style="2" customWidth="1"/>
-    <col min="66" max="16384" width="11.42578125" style="2"/>
+    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
     </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
+    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
     </row>
-    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="29">
         <v>2005</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
         <v>2006</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29">
         <v>2007</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29">
         <v>2008</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35">
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29">
         <v>2009</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29">
         <v>2010</v>
       </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35">
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29">
         <v>2011</v>
       </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29">
         <v>2012</v>
       </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35">
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29">
         <v>2013</v>
       </c>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35">
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29">
         <v>2014</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35">
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35">
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29">
         <v>2016</v>
       </c>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35">
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29">
         <v>2017</v>
       </c>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35">
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29">
         <v>2018</v>
       </c>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35">
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29">
         <v>2019</v>
       </c>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35">
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="29">
         <v>2020</v>
       </c>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="30">
+      <c r="BK4" s="29"/>
+      <c r="BL4" s="29"/>
+      <c r="BM4" s="29">
         <v>2021</v>
       </c>
+      <c r="BN4" s="29"/>
     </row>
-    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1713,77 +1727,81 @@
       <c r="BM5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="BN5" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="33"/>
-      <c r="BI6" s="33"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="31"/>
+      <c r="BC6" s="31"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="34"/>
     </row>
-    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -1964,23 +1982,26 @@
       <c r="BH7" s="17">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="20">
+      <c r="BI7" s="19">
         <v>3772715</v>
       </c>
-      <c r="BJ7" s="25">
+      <c r="BJ7" s="23">
         <v>3778375</v>
       </c>
-      <c r="BK7" s="25">
+      <c r="BK7" s="23">
         <v>3576228</v>
       </c>
-      <c r="BL7" s="25">
+      <c r="BL7" s="23">
         <v>3654530</v>
       </c>
-      <c r="BM7" s="25">
+      <c r="BM7" s="23">
         <v>3735596</v>
       </c>
+      <c r="BN7" s="23">
+        <v>3824700</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2161,23 +2182,26 @@
       <c r="BH8" s="12">
         <v>325046</v>
       </c>
-      <c r="BI8" s="21">
+      <c r="BI8" s="20">
         <v>318674</v>
       </c>
-      <c r="BJ8" s="26">
+      <c r="BJ8" s="24">
         <v>275974</v>
       </c>
-      <c r="BK8" s="26">
+      <c r="BK8" s="24">
         <v>285948</v>
       </c>
-      <c r="BL8" s="26">
+      <c r="BL8" s="24">
         <v>298834</v>
       </c>
-      <c r="BM8" s="26">
+      <c r="BM8" s="24">
         <v>306010</v>
       </c>
+      <c r="BN8" s="24">
+        <v>329779</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2358,23 +2382,26 @@
       <c r="BH9" s="14">
         <v>325046</v>
       </c>
-      <c r="BI9" s="22">
+      <c r="BI9" s="21">
         <v>318674</v>
       </c>
-      <c r="BJ9" s="26">
+      <c r="BJ9" s="24">
         <v>275974</v>
       </c>
-      <c r="BK9" s="26">
+      <c r="BK9" s="24">
         <v>285948</v>
       </c>
-      <c r="BL9" s="26">
+      <c r="BL9" s="24">
         <v>298834</v>
       </c>
-      <c r="BM9" s="26">
+      <c r="BM9" s="24">
         <v>306010</v>
       </c>
+      <c r="BN9" s="24">
+        <v>329779</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2555,23 +2582,26 @@
       <c r="BH10" s="12">
         <v>997801</v>
       </c>
-      <c r="BI10" s="21">
+      <c r="BI10" s="20">
         <v>1021982</v>
       </c>
-      <c r="BJ10" s="27">
+      <c r="BJ10" s="25">
         <v>1022081</v>
       </c>
-      <c r="BK10" s="27">
+      <c r="BK10" s="25">
         <v>1008404</v>
       </c>
-      <c r="BL10" s="27">
+      <c r="BL10" s="25">
         <v>967684</v>
       </c>
-      <c r="BM10" s="27">
+      <c r="BM10" s="25">
         <v>1028196</v>
       </c>
+      <c r="BN10" s="25">
+        <v>1001614</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2752,23 +2782,26 @@
       <c r="BH11" s="11">
         <v>10592</v>
       </c>
-      <c r="BI11" s="23">
+      <c r="BI11" s="22">
         <v>14857</v>
       </c>
-      <c r="BJ11" s="26">
+      <c r="BJ11" s="24">
         <v>13833</v>
       </c>
-      <c r="BK11" s="26">
+      <c r="BK11" s="24">
         <v>12723</v>
       </c>
-      <c r="BL11" s="26">
+      <c r="BL11" s="24">
         <v>11697</v>
       </c>
-      <c r="BM11" s="26">
+      <c r="BM11" s="24">
         <v>8581</v>
       </c>
+      <c r="BN11" s="24">
+        <v>9609</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -2949,23 +2982,26 @@
       <c r="BH12" s="11">
         <v>694328</v>
       </c>
-      <c r="BI12" s="23">
+      <c r="BI12" s="22">
         <v>697952</v>
       </c>
-      <c r="BJ12" s="26">
+      <c r="BJ12" s="24">
         <v>700917</v>
       </c>
-      <c r="BK12" s="26">
+      <c r="BK12" s="24">
         <v>678373</v>
       </c>
-      <c r="BL12" s="26">
+      <c r="BL12" s="24">
         <v>635309</v>
       </c>
-      <c r="BM12" s="26">
+      <c r="BM12" s="24">
         <v>680330</v>
       </c>
+      <c r="BN12" s="24">
+        <v>676852</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3146,23 +3182,26 @@
       <c r="BH13" s="11">
         <v>292881</v>
       </c>
-      <c r="BI13" s="23">
+      <c r="BI13" s="22">
         <v>309173</v>
       </c>
-      <c r="BJ13" s="26">
+      <c r="BJ13" s="24">
         <v>307331</v>
       </c>
-      <c r="BK13" s="26">
+      <c r="BK13" s="24">
         <v>317308</v>
       </c>
-      <c r="BL13" s="26">
+      <c r="BL13" s="24">
         <v>320678</v>
       </c>
-      <c r="BM13" s="26">
+      <c r="BM13" s="24">
         <v>339285</v>
       </c>
+      <c r="BN13" s="24">
+        <v>315153</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3343,23 +3382,26 @@
       <c r="BH14" s="12">
         <v>2415333</v>
       </c>
-      <c r="BI14" s="21">
+      <c r="BI14" s="20">
         <v>2415328</v>
       </c>
-      <c r="BJ14" s="27">
+      <c r="BJ14" s="25">
         <v>2464057</v>
       </c>
-      <c r="BK14" s="27">
+      <c r="BK14" s="25">
         <v>2274291</v>
       </c>
-      <c r="BL14" s="27">
+      <c r="BL14" s="25">
         <v>2368937</v>
       </c>
-      <c r="BM14" s="27">
+      <c r="BM14" s="25">
         <v>2384707</v>
       </c>
+      <c r="BN14" s="25">
+        <v>2470360</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3540,23 +3582,26 @@
       <c r="BH15" s="11">
         <v>824616</v>
       </c>
-      <c r="BI15" s="23">
+      <c r="BI15" s="22">
         <v>820815</v>
       </c>
-      <c r="BJ15" s="26">
+      <c r="BJ15" s="24">
         <v>800526</v>
       </c>
-      <c r="BK15" s="26">
+      <c r="BK15" s="24">
         <v>796652</v>
       </c>
-      <c r="BL15" s="26">
+      <c r="BL15" s="24">
         <v>840238</v>
       </c>
-      <c r="BM15" s="26">
+      <c r="BM15" s="24">
         <v>795201</v>
       </c>
+      <c r="BN15" s="24">
+        <v>828020</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3737,23 +3782,26 @@
       <c r="BH16" s="11">
         <v>329190</v>
       </c>
-      <c r="BI16" s="23">
+      <c r="BI16" s="22">
         <v>318190</v>
       </c>
-      <c r="BJ16" s="26">
+      <c r="BJ16" s="24">
         <v>322871</v>
       </c>
-      <c r="BK16" s="26">
+      <c r="BK16" s="24">
         <v>256152</v>
       </c>
-      <c r="BL16" s="26">
+      <c r="BL16" s="24">
         <v>253075</v>
       </c>
-      <c r="BM16" s="26">
+      <c r="BM16" s="24">
         <v>278007</v>
       </c>
+      <c r="BN16" s="24">
+        <v>315832</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -3934,23 +3982,26 @@
       <c r="BH17" s="11">
         <v>152741</v>
       </c>
-      <c r="BI17" s="23">
+      <c r="BI17" s="22">
         <v>159043</v>
       </c>
-      <c r="BJ17" s="26">
+      <c r="BJ17" s="24">
         <v>155632</v>
       </c>
-      <c r="BK17" s="26">
+      <c r="BK17" s="24">
         <v>154740</v>
       </c>
-      <c r="BL17" s="26">
+      <c r="BL17" s="24">
         <v>159147</v>
       </c>
-      <c r="BM17" s="26">
+      <c r="BM17" s="24">
         <v>159238</v>
       </c>
+      <c r="BN17" s="24">
+        <v>168136</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4131,23 +4182,26 @@
       <c r="BH18" s="11">
         <v>320862</v>
       </c>
-      <c r="BI18" s="23">
+      <c r="BI18" s="22">
         <v>309747</v>
       </c>
-      <c r="BJ18" s="28">
+      <c r="BJ18" s="26">
         <v>337147</v>
       </c>
-      <c r="BK18" s="28">
+      <c r="BK18" s="26">
         <v>298299</v>
       </c>
-      <c r="BL18" s="28">
+      <c r="BL18" s="26">
         <v>306634</v>
       </c>
-      <c r="BM18" s="28">
+      <c r="BM18" s="26">
         <v>314201</v>
       </c>
+      <c r="BN18" s="26">
+        <v>322092</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4328,23 +4382,26 @@
       <c r="BH19" s="11">
         <v>267098</v>
       </c>
-      <c r="BI19" s="23">
+      <c r="BI19" s="22">
         <v>263453</v>
       </c>
-      <c r="BJ19" s="28">
+      <c r="BJ19" s="26">
         <v>283499</v>
       </c>
-      <c r="BK19" s="28">
+      <c r="BK19" s="26">
         <v>287271</v>
       </c>
-      <c r="BL19" s="28">
+      <c r="BL19" s="26">
         <v>286249</v>
       </c>
-      <c r="BM19" s="28">
+      <c r="BM19" s="26">
         <v>305654</v>
       </c>
+      <c r="BN19" s="26">
+        <v>311305</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4525,23 +4582,26 @@
       <c r="BH20" s="11">
         <v>411636</v>
       </c>
-      <c r="BI20" s="23">
+      <c r="BI20" s="22">
         <v>430849</v>
       </c>
-      <c r="BJ20" s="28">
+      <c r="BJ20" s="26">
         <v>449416</v>
       </c>
-      <c r="BK20" s="28">
+      <c r="BK20" s="26">
         <v>359179</v>
       </c>
-      <c r="BL20" s="28">
+      <c r="BL20" s="26">
         <v>393012</v>
       </c>
-      <c r="BM20" s="28">
+      <c r="BM20" s="26">
         <v>413461</v>
       </c>
+      <c r="BN20" s="26">
+        <v>414151</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -4722,23 +4782,26 @@
       <c r="BH21" s="11">
         <v>109190</v>
       </c>
-      <c r="BI21" s="23">
+      <c r="BI21" s="22">
         <v>113231</v>
       </c>
-      <c r="BJ21" s="28">
+      <c r="BJ21" s="26">
         <v>114966</v>
       </c>
-      <c r="BK21" s="28">
+      <c r="BK21" s="26">
         <v>121998</v>
       </c>
-      <c r="BL21" s="28">
+      <c r="BL21" s="26">
         <v>130582</v>
       </c>
-      <c r="BM21" s="28">
+      <c r="BM21" s="26">
         <v>118945</v>
       </c>
+      <c r="BN21" s="26">
+        <v>110824</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -4919,109 +4982,107 @@
       <c r="BH22" s="12">
         <v>23102</v>
       </c>
-      <c r="BI22" s="21">
+      <c r="BI22" s="20">
         <v>16731</v>
       </c>
-      <c r="BJ22" s="29">
+      <c r="BJ22" s="27">
         <v>16263</v>
       </c>
-      <c r="BK22" s="29">
+      <c r="BK22" s="27">
         <v>7585</v>
       </c>
-      <c r="BL22" s="29">
+      <c r="BL22" s="27">
         <v>19075</v>
       </c>
-      <c r="BM22" s="29">
+      <c r="BM22" s="27">
         <v>16683</v>
       </c>
+      <c r="BN22" s="27">
+        <v>22947</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="30"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="30"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="B6:BN6"/>
     <mergeCell ref="A23:BK23"/>
-    <mergeCell ref="BF6:BI6"/>
-    <mergeCell ref="A1:BF1"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -5035,6 +5096,11 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,7 +119,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 -II  trimestre de 2021</t>
+    <t>I trimestre 2005 -III  trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -867,20 +867,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1227,11 +1227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN25"/>
+  <dimension ref="A1:BO25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH34" sqref="BH34"/>
+      <selection pane="topRight" activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,12 +1297,12 @@
     <col min="59" max="59" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="60" max="61" width="15.5703125" style="2" customWidth="1"/>
     <col min="62" max="64" width="16.7109375" style="2" customWidth="1"/>
-    <col min="65" max="65" width="16.42578125" style="2" customWidth="1"/>
-    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="16384" width="11.42578125" style="2"/>
+    <col min="65" max="66" width="16.42578125" style="2" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1364,73 +1364,73 @@
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
+    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33"/>
+      <c r="BF3" s="33"/>
     </row>
-    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="29">
@@ -1532,9 +1532,10 @@
         <v>2021</v>
       </c>
       <c r="BN4" s="29"/>
+      <c r="BO4" s="29"/>
     </row>
-    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1730,78 +1731,82 @@
       <c r="BN5" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="BO5" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="31"/>
-      <c r="AV6" s="31"/>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="31"/>
-      <c r="AY6" s="31"/>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
-      <c r="BB6" s="31"/>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="31"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" s="31"/>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="34"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="30"/>
+      <c r="BC6" s="30"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="31"/>
     </row>
-    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -2000,8 +2005,11 @@
       <c r="BN7" s="23">
         <v>3824700</v>
       </c>
+      <c r="BO7" s="23">
+        <v>3825417</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2200,8 +2208,11 @@
       <c r="BN8" s="24">
         <v>329779</v>
       </c>
+      <c r="BO8" s="24">
+        <v>352134</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2400,8 +2411,11 @@
       <c r="BN9" s="24">
         <v>329779</v>
       </c>
+      <c r="BO9" s="24">
+        <v>352134</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2600,8 +2614,11 @@
       <c r="BN10" s="25">
         <v>1001614</v>
       </c>
+      <c r="BO10" s="25">
+        <v>993276</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2800,8 +2817,11 @@
       <c r="BN11" s="24">
         <v>9609</v>
       </c>
+      <c r="BO11" s="24">
+        <v>11013</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3000,8 +3020,11 @@
       <c r="BN12" s="24">
         <v>676852</v>
       </c>
+      <c r="BO12" s="24">
+        <v>691638</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3200,8 +3223,11 @@
       <c r="BN13" s="24">
         <v>315153</v>
       </c>
+      <c r="BO13" s="24">
+        <v>290625</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3400,8 +3426,11 @@
       <c r="BN14" s="25">
         <v>2470360</v>
       </c>
+      <c r="BO14" s="25">
+        <v>2451405</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3600,8 +3629,11 @@
       <c r="BN15" s="24">
         <v>828020</v>
       </c>
+      <c r="BO15" s="24">
+        <v>808309</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3800,8 +3832,11 @@
       <c r="BN16" s="24">
         <v>315832</v>
       </c>
+      <c r="BO16" s="24">
+        <v>321269</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -4000,8 +4035,11 @@
       <c r="BN17" s="24">
         <v>168136</v>
       </c>
+      <c r="BO17" s="24">
+        <v>175584</v>
+      </c>
     </row>
-    <row r="18" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4200,8 +4238,11 @@
       <c r="BN18" s="26">
         <v>322092</v>
       </c>
+      <c r="BO18" s="26">
+        <v>343143</v>
+      </c>
     </row>
-    <row r="19" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4400,8 +4441,11 @@
       <c r="BN19" s="26">
         <v>311305</v>
       </c>
+      <c r="BO19" s="26">
+        <v>319551</v>
+      </c>
     </row>
-    <row r="20" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4600,8 +4644,11 @@
       <c r="BN20" s="26">
         <v>414151</v>
       </c>
+      <c r="BO20" s="26">
+        <v>390278</v>
+      </c>
     </row>
-    <row r="21" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -4800,8 +4847,11 @@
       <c r="BN21" s="26">
         <v>110824</v>
       </c>
+      <c r="BO21" s="26">
+        <v>93271</v>
+      </c>
     </row>
-    <row r="22" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -5000,88 +5050,96 @@
       <c r="BN22" s="27">
         <v>22947</v>
       </c>
+      <c r="BO22" s="27">
+        <v>28602</v>
+      </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="30"/>
-      <c r="AZ23" s="30"/>
-      <c r="BA23" s="30"/>
-      <c r="BB23" s="30"/>
-      <c r="BC23" s="30"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
-      <c r="BF23" s="30"/>
-      <c r="BG23" s="30"/>
-      <c r="BH23" s="30"/>
-      <c r="BI23" s="30"/>
-      <c r="BJ23" s="30"/>
-      <c r="BK23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BH23" s="32"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="32"/>
+      <c r="BK23" s="32"/>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="B6:BN6"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="B6:BO6"/>
     <mergeCell ref="A23:BK23"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
@@ -5096,11 +5154,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,7 +119,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 -III  trimestre de 2021</t>
+    <t>I trimestre 2005 -IV  trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -881,6 +881,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1227,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO25"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR13" sqref="BR13"/>
+      <selection pane="topRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,14 +1310,19 @@
     <col min="57" max="57" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="15.5703125" style="2" customWidth="1"/>
-    <col min="62" max="64" width="16.7109375" style="2" customWidth="1"/>
-    <col min="65" max="66" width="16.42578125" style="2" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="11.42578125" style="2"/>
+    <col min="60" max="60" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.5703125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="16.7109375" style="2" customWidth="1"/>
+    <col min="63" max="63" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.7109375" style="2" customWidth="1"/>
+    <col min="65" max="65" width="16.42578125" style="2" customWidth="1"/>
+    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1364,12 +1384,12 @@
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
     </row>
-    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1429,7 +1449,7 @@
       <c r="BE3" s="33"/>
       <c r="BF3" s="33"/>
     </row>
-    <row r="4" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
@@ -1528,13 +1548,14 @@
       </c>
       <c r="BK4" s="29"/>
       <c r="BL4" s="29"/>
-      <c r="BM4" s="29">
+      <c r="BM4" s="35">
         <v>2021</v>
       </c>
-      <c r="BN4" s="29"/>
-      <c r="BO4" s="29"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="37"/>
     </row>
-    <row r="5" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1734,12 +1755,15 @@
       <c r="BO5" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="BP5" s="38" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -1804,9 +1828,10 @@
       <c r="BL6" s="30"/>
       <c r="BM6" s="30"/>
       <c r="BN6" s="30"/>
-      <c r="BO6" s="31"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="31"/>
     </row>
-    <row r="7" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -2008,8 +2033,11 @@
       <c r="BO7" s="23">
         <v>3825417</v>
       </c>
+      <c r="BP7" s="23">
+        <v>3924612</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2211,8 +2239,11 @@
       <c r="BO8" s="24">
         <v>352134</v>
       </c>
+      <c r="BP8" s="24">
+        <v>371577</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2414,8 +2445,11 @@
       <c r="BO9" s="24">
         <v>352134</v>
       </c>
+      <c r="BP9" s="24">
+        <v>371577</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2617,8 +2651,11 @@
       <c r="BO10" s="25">
         <v>993276</v>
       </c>
+      <c r="BP10" s="25">
+        <v>1018574</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2820,8 +2857,11 @@
       <c r="BO11" s="24">
         <v>11013</v>
       </c>
+      <c r="BP11" s="24">
+        <v>11505</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3023,8 +3063,11 @@
       <c r="BO12" s="24">
         <v>691638</v>
       </c>
+      <c r="BP12" s="24">
+        <v>721939</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3226,8 +3269,11 @@
       <c r="BO13" s="24">
         <v>290625</v>
       </c>
+      <c r="BP13" s="24">
+        <v>285130</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3429,8 +3475,11 @@
       <c r="BO14" s="25">
         <v>2451405</v>
       </c>
+      <c r="BP14" s="25">
+        <v>2515601</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3632,8 +3681,11 @@
       <c r="BO15" s="24">
         <v>808309</v>
       </c>
+      <c r="BP15" s="24">
+        <v>857950</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3835,8 +3887,11 @@
       <c r="BO16" s="24">
         <v>321269</v>
       </c>
+      <c r="BP16" s="24">
+        <v>337162</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -4038,8 +4093,11 @@
       <c r="BO17" s="24">
         <v>175584</v>
       </c>
+      <c r="BP17" s="24">
+        <v>171262</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4241,8 +4299,11 @@
       <c r="BO18" s="26">
         <v>343143</v>
       </c>
+      <c r="BP18" s="26">
+        <v>340891</v>
+      </c>
     </row>
-    <row r="19" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4444,8 +4505,11 @@
       <c r="BO19" s="26">
         <v>319551</v>
       </c>
+      <c r="BP19" s="26">
+        <v>310073</v>
+      </c>
     </row>
-    <row r="20" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4647,8 +4711,11 @@
       <c r="BO20" s="26">
         <v>390278</v>
       </c>
+      <c r="BP20" s="26">
+        <v>405115</v>
+      </c>
     </row>
-    <row r="21" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -4850,8 +4917,11 @@
       <c r="BO21" s="26">
         <v>93271</v>
       </c>
+      <c r="BP21" s="26">
+        <v>93148</v>
+      </c>
     </row>
-    <row r="22" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -5053,8 +5123,11 @@
       <c r="BO22" s="27">
         <v>28602</v>
       </c>
+      <c r="BP22" s="27">
+        <v>18860</v>
+      </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>24</v>
       </c>
@@ -5121,25 +5194,20 @@
       <c r="BJ23" s="32"/>
       <c r="BK23" s="32"/>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="B6:BO6"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="B6:BP6"/>
     <mergeCell ref="A23:BK23"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
@@ -5154,6 +5222,11 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
     <sheet name="pob ocupada sector" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,7 +119,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 -IV  trimestre de 2021</t>
+    <t>I trimestre 2005 - I trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -745,6 +745,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -790,7 +810,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -837,7 +857,6 @@
     <xf numFmtId="3" fontId="16" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="16" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -864,23 +883,11 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,12 +898,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1242,87 +1257,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BQ25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E32" sqref="E32"/>
+      <selection pane="topRight" activeCell="BQ7" sqref="BQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5703125" style="2" customWidth="1"/>
-    <col min="62" max="62" width="16.7109375" style="2" customWidth="1"/>
-    <col min="63" max="63" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.7109375" style="2" customWidth="1"/>
-    <col min="65" max="65" width="16.42578125" style="2" customWidth="1"/>
-    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="45.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.625" style="2" customWidth="1"/>
+    <col min="62" max="62" width="16.75" style="2" customWidth="1"/>
+    <col min="63" max="63" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.75" style="2" customWidth="1"/>
+    <col min="65" max="65" width="16.375" style="2" customWidth="1"/>
+    <col min="66" max="66" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.875" style="2" customWidth="1"/>
+    <col min="70" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1384,179 +1400,182 @@
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33"/>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33"/>
-      <c r="BF3" s="33"/>
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="35">
         <v>2005</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
         <v>2006</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35">
         <v>2007</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35">
         <v>2008</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29">
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35">
         <v>2009</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29">
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35">
         <v>2010</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29">
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35">
         <v>2011</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29">
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35">
         <v>2012</v>
       </c>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29">
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35">
         <v>2013</v>
       </c>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29">
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35">
         <v>2014</v>
       </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29">
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29">
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35">
         <v>2016</v>
       </c>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29">
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35">
         <v>2017</v>
       </c>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29">
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35">
         <v>2018</v>
       </c>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="29">
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35">
         <v>2019</v>
       </c>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="29">
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35">
         <v>2020</v>
       </c>
-      <c r="BK4" s="29"/>
-      <c r="BL4" s="29"/>
-      <c r="BM4" s="35">
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="30">
         <v>2021</v>
       </c>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="37"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="28">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1755,83 +1774,87 @@
       <c r="BO5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BP5" s="38" t="s">
+      <c r="BP5" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="BQ5" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="30"/>
-      <c r="BC6" s="30"/>
-      <c r="BD6" s="30"/>
-      <c r="BE6" s="30"/>
-      <c r="BF6" s="30"/>
-      <c r="BG6" s="30"/>
-      <c r="BH6" s="30"/>
-      <c r="BI6" s="30"/>
-      <c r="BJ6" s="30"/>
-      <c r="BK6" s="30"/>
-      <c r="BL6" s="30"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="31"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
+      <c r="BQ6" s="38"/>
     </row>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
@@ -2012,32 +2035,35 @@
       <c r="BH7" s="17">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="19">
+      <c r="BI7" s="18">
         <v>3772715</v>
       </c>
-      <c r="BJ7" s="23">
+      <c r="BJ7" s="22">
         <v>3778375</v>
       </c>
-      <c r="BK7" s="23">
+      <c r="BK7" s="22">
         <v>3576228</v>
       </c>
-      <c r="BL7" s="23">
+      <c r="BL7" s="22">
         <v>3654530</v>
       </c>
-      <c r="BM7" s="23">
+      <c r="BM7" s="22">
         <v>3735596</v>
       </c>
-      <c r="BN7" s="23">
+      <c r="BN7" s="22">
         <v>3824700</v>
       </c>
-      <c r="BO7" s="23">
+      <c r="BO7" s="22">
         <v>3825417</v>
       </c>
-      <c r="BP7" s="23">
+      <c r="BP7" s="22">
         <v>3924612</v>
       </c>
+      <c r="BQ7" s="22">
+        <v>3943727</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2218,32 +2244,35 @@
       <c r="BH8" s="12">
         <v>325046</v>
       </c>
-      <c r="BI8" s="20">
+      <c r="BI8" s="19">
         <v>318674</v>
       </c>
-      <c r="BJ8" s="24">
+      <c r="BJ8" s="23">
         <v>275974</v>
       </c>
-      <c r="BK8" s="24">
+      <c r="BK8" s="23">
         <v>285948</v>
       </c>
-      <c r="BL8" s="24">
+      <c r="BL8" s="23">
         <v>298834</v>
       </c>
-      <c r="BM8" s="24">
+      <c r="BM8" s="23">
         <v>306010</v>
       </c>
-      <c r="BN8" s="24">
+      <c r="BN8" s="23">
         <v>329779</v>
       </c>
-      <c r="BO8" s="24">
+      <c r="BO8" s="23">
         <v>352134</v>
       </c>
-      <c r="BP8" s="24">
+      <c r="BP8" s="23">
         <v>371577</v>
       </c>
+      <c r="BQ8" s="23">
+        <v>376300</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2424,32 +2453,35 @@
       <c r="BH9" s="14">
         <v>325046</v>
       </c>
-      <c r="BI9" s="21">
+      <c r="BI9" s="20">
         <v>318674</v>
       </c>
-      <c r="BJ9" s="24">
+      <c r="BJ9" s="23">
         <v>275974</v>
       </c>
-      <c r="BK9" s="24">
+      <c r="BK9" s="23">
         <v>285948</v>
       </c>
-      <c r="BL9" s="24">
+      <c r="BL9" s="23">
         <v>298834</v>
       </c>
-      <c r="BM9" s="24">
+      <c r="BM9" s="23">
         <v>306010</v>
       </c>
-      <c r="BN9" s="24">
+      <c r="BN9" s="23">
         <v>329779</v>
       </c>
-      <c r="BO9" s="24">
+      <c r="BO9" s="23">
         <v>352134</v>
       </c>
-      <c r="BP9" s="24">
+      <c r="BP9" s="23">
         <v>371577</v>
       </c>
+      <c r="BQ9" s="23">
+        <v>376300</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2630,32 +2662,35 @@
       <c r="BH10" s="12">
         <v>997801</v>
       </c>
-      <c r="BI10" s="20">
+      <c r="BI10" s="19">
         <v>1021982</v>
       </c>
-      <c r="BJ10" s="25">
+      <c r="BJ10" s="24">
         <v>1022081</v>
       </c>
-      <c r="BK10" s="25">
+      <c r="BK10" s="24">
         <v>1008404</v>
       </c>
-      <c r="BL10" s="25">
+      <c r="BL10" s="24">
         <v>967684</v>
       </c>
-      <c r="BM10" s="25">
+      <c r="BM10" s="24">
         <v>1028196</v>
       </c>
-      <c r="BN10" s="25">
+      <c r="BN10" s="24">
         <v>1001614</v>
       </c>
-      <c r="BO10" s="25">
+      <c r="BO10" s="24">
         <v>993276</v>
       </c>
-      <c r="BP10" s="25">
+      <c r="BP10" s="24">
         <v>1018574</v>
       </c>
+      <c r="BQ10" s="24">
+        <v>1030887</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2836,32 +2871,35 @@
       <c r="BH11" s="11">
         <v>10592</v>
       </c>
-      <c r="BI11" s="22">
+      <c r="BI11" s="21">
         <v>14857</v>
       </c>
-      <c r="BJ11" s="24">
+      <c r="BJ11" s="23">
         <v>13833</v>
       </c>
-      <c r="BK11" s="24">
+      <c r="BK11" s="23">
         <v>12723</v>
       </c>
-      <c r="BL11" s="24">
+      <c r="BL11" s="23">
         <v>11697</v>
       </c>
-      <c r="BM11" s="24">
+      <c r="BM11" s="23">
         <v>8581</v>
       </c>
-      <c r="BN11" s="24">
+      <c r="BN11" s="23">
         <v>9609</v>
       </c>
-      <c r="BO11" s="24">
+      <c r="BO11" s="23">
         <v>11013</v>
       </c>
-      <c r="BP11" s="24">
+      <c r="BP11" s="23">
         <v>11505</v>
       </c>
+      <c r="BQ11" s="23">
+        <v>4692</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3042,32 +3080,35 @@
       <c r="BH12" s="11">
         <v>694328</v>
       </c>
-      <c r="BI12" s="22">
+      <c r="BI12" s="21">
         <v>697952</v>
       </c>
-      <c r="BJ12" s="24">
+      <c r="BJ12" s="23">
         <v>700917</v>
       </c>
-      <c r="BK12" s="24">
+      <c r="BK12" s="23">
         <v>678373</v>
       </c>
-      <c r="BL12" s="24">
+      <c r="BL12" s="23">
         <v>635309</v>
       </c>
-      <c r="BM12" s="24">
+      <c r="BM12" s="23">
         <v>680330</v>
       </c>
-      <c r="BN12" s="24">
+      <c r="BN12" s="23">
         <v>676852</v>
       </c>
-      <c r="BO12" s="24">
+      <c r="BO12" s="23">
         <v>691638</v>
       </c>
-      <c r="BP12" s="24">
+      <c r="BP12" s="23">
         <v>721939</v>
       </c>
+      <c r="BQ12" s="23">
+        <v>727155</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3248,32 +3289,35 @@
       <c r="BH13" s="11">
         <v>292881</v>
       </c>
-      <c r="BI13" s="22">
+      <c r="BI13" s="21">
         <v>309173</v>
       </c>
-      <c r="BJ13" s="24">
+      <c r="BJ13" s="23">
         <v>307331</v>
       </c>
-      <c r="BK13" s="24">
+      <c r="BK13" s="23">
         <v>317308</v>
       </c>
-      <c r="BL13" s="24">
+      <c r="BL13" s="23">
         <v>320678</v>
       </c>
-      <c r="BM13" s="24">
+      <c r="BM13" s="23">
         <v>339285</v>
       </c>
-      <c r="BN13" s="24">
+      <c r="BN13" s="23">
         <v>315153</v>
       </c>
-      <c r="BO13" s="24">
+      <c r="BO13" s="23">
         <v>290625</v>
       </c>
-      <c r="BP13" s="24">
+      <c r="BP13" s="23">
         <v>285130</v>
       </c>
+      <c r="BQ13" s="23">
+        <v>299040</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3454,32 +3498,35 @@
       <c r="BH14" s="12">
         <v>2415333</v>
       </c>
-      <c r="BI14" s="20">
+      <c r="BI14" s="19">
         <v>2415328</v>
       </c>
-      <c r="BJ14" s="25">
+      <c r="BJ14" s="24">
         <v>2464057</v>
       </c>
-      <c r="BK14" s="25">
+      <c r="BK14" s="24">
         <v>2274291</v>
       </c>
-      <c r="BL14" s="25">
+      <c r="BL14" s="24">
         <v>2368937</v>
       </c>
-      <c r="BM14" s="25">
+      <c r="BM14" s="24">
         <v>2384707</v>
       </c>
-      <c r="BN14" s="25">
+      <c r="BN14" s="24">
         <v>2470360</v>
       </c>
-      <c r="BO14" s="25">
+      <c r="BO14" s="24">
         <v>2451405</v>
       </c>
-      <c r="BP14" s="25">
+      <c r="BP14" s="24">
         <v>2515601</v>
       </c>
+      <c r="BQ14" s="24">
+        <v>2514363</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3660,32 +3707,35 @@
       <c r="BH15" s="11">
         <v>824616</v>
       </c>
-      <c r="BI15" s="22">
+      <c r="BI15" s="21">
         <v>820815</v>
       </c>
-      <c r="BJ15" s="24">
+      <c r="BJ15" s="23">
         <v>800526</v>
       </c>
-      <c r="BK15" s="24">
+      <c r="BK15" s="23">
         <v>796652</v>
       </c>
-      <c r="BL15" s="24">
+      <c r="BL15" s="23">
         <v>840238</v>
       </c>
-      <c r="BM15" s="24">
+      <c r="BM15" s="23">
         <v>795201</v>
       </c>
-      <c r="BN15" s="24">
+      <c r="BN15" s="23">
         <v>828020</v>
       </c>
-      <c r="BO15" s="24">
+      <c r="BO15" s="23">
         <v>808309</v>
       </c>
-      <c r="BP15" s="24">
+      <c r="BP15" s="23">
         <v>857950</v>
       </c>
+      <c r="BQ15" s="23">
+        <v>844493</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3866,32 +3916,35 @@
       <c r="BH16" s="11">
         <v>329190</v>
       </c>
-      <c r="BI16" s="22">
+      <c r="BI16" s="21">
         <v>318190</v>
       </c>
-      <c r="BJ16" s="24">
+      <c r="BJ16" s="23">
         <v>322871</v>
       </c>
-      <c r="BK16" s="24">
+      <c r="BK16" s="23">
         <v>256152</v>
       </c>
-      <c r="BL16" s="24">
+      <c r="BL16" s="23">
         <v>253075</v>
       </c>
-      <c r="BM16" s="24">
+      <c r="BM16" s="23">
         <v>278007</v>
       </c>
-      <c r="BN16" s="24">
+      <c r="BN16" s="23">
         <v>315832</v>
       </c>
-      <c r="BO16" s="24">
+      <c r="BO16" s="23">
         <v>321269</v>
       </c>
-      <c r="BP16" s="24">
+      <c r="BP16" s="23">
         <v>337162</v>
       </c>
+      <c r="BQ16" s="23">
+        <v>331993</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -4072,32 +4125,35 @@
       <c r="BH17" s="11">
         <v>152741</v>
       </c>
-      <c r="BI17" s="22">
+      <c r="BI17" s="21">
         <v>159043</v>
       </c>
-      <c r="BJ17" s="24">
+      <c r="BJ17" s="23">
         <v>155632</v>
       </c>
-      <c r="BK17" s="24">
+      <c r="BK17" s="23">
         <v>154740</v>
       </c>
-      <c r="BL17" s="24">
+      <c r="BL17" s="23">
         <v>159147</v>
       </c>
-      <c r="BM17" s="24">
+      <c r="BM17" s="23">
         <v>159238</v>
       </c>
-      <c r="BN17" s="24">
+      <c r="BN17" s="23">
         <v>168136</v>
       </c>
-      <c r="BO17" s="24">
+      <c r="BO17" s="23">
         <v>175584</v>
       </c>
-      <c r="BP17" s="24">
+      <c r="BP17" s="23">
         <v>171262</v>
       </c>
+      <c r="BQ17" s="23">
+        <v>170600</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4278,32 +4334,35 @@
       <c r="BH18" s="11">
         <v>320862</v>
       </c>
-      <c r="BI18" s="22">
+      <c r="BI18" s="21">
         <v>309747</v>
       </c>
-      <c r="BJ18" s="26">
+      <c r="BJ18" s="25">
         <v>337147</v>
       </c>
-      <c r="BK18" s="26">
+      <c r="BK18" s="25">
         <v>298299</v>
       </c>
-      <c r="BL18" s="26">
+      <c r="BL18" s="25">
         <v>306634</v>
       </c>
-      <c r="BM18" s="26">
+      <c r="BM18" s="25">
         <v>314201</v>
       </c>
-      <c r="BN18" s="26">
+      <c r="BN18" s="25">
         <v>322092</v>
       </c>
-      <c r="BO18" s="26">
+      <c r="BO18" s="25">
         <v>343143</v>
       </c>
-      <c r="BP18" s="26">
+      <c r="BP18" s="25">
         <v>340891</v>
       </c>
+      <c r="BQ18" s="25">
+        <v>346249</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4484,32 +4543,35 @@
       <c r="BH19" s="11">
         <v>267098</v>
       </c>
-      <c r="BI19" s="22">
+      <c r="BI19" s="21">
         <v>263453</v>
       </c>
-      <c r="BJ19" s="26">
+      <c r="BJ19" s="25">
         <v>283499</v>
       </c>
-      <c r="BK19" s="26">
+      <c r="BK19" s="25">
         <v>287271</v>
       </c>
-      <c r="BL19" s="26">
+      <c r="BL19" s="25">
         <v>286249</v>
       </c>
-      <c r="BM19" s="26">
+      <c r="BM19" s="25">
         <v>305654</v>
       </c>
-      <c r="BN19" s="26">
+      <c r="BN19" s="25">
         <v>311305</v>
       </c>
-      <c r="BO19" s="26">
+      <c r="BO19" s="25">
         <v>319551</v>
       </c>
-      <c r="BP19" s="26">
+      <c r="BP19" s="25">
         <v>310073</v>
       </c>
+      <c r="BQ19" s="25">
+        <v>311112</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4690,32 +4752,35 @@
       <c r="BH20" s="11">
         <v>411636</v>
       </c>
-      <c r="BI20" s="22">
+      <c r="BI20" s="21">
         <v>430849</v>
       </c>
-      <c r="BJ20" s="26">
+      <c r="BJ20" s="25">
         <v>449416</v>
       </c>
-      <c r="BK20" s="26">
+      <c r="BK20" s="25">
         <v>359179</v>
       </c>
-      <c r="BL20" s="26">
+      <c r="BL20" s="25">
         <v>393012</v>
       </c>
-      <c r="BM20" s="26">
+      <c r="BM20" s="25">
         <v>413461</v>
       </c>
-      <c r="BN20" s="26">
+      <c r="BN20" s="25">
         <v>414151</v>
       </c>
-      <c r="BO20" s="26">
+      <c r="BO20" s="25">
         <v>390278</v>
       </c>
-      <c r="BP20" s="26">
+      <c r="BP20" s="25">
         <v>405115</v>
       </c>
+      <c r="BQ20" s="25">
+        <v>403307</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -4896,32 +4961,35 @@
       <c r="BH21" s="11">
         <v>109190</v>
       </c>
-      <c r="BI21" s="22">
+      <c r="BI21" s="21">
         <v>113231</v>
       </c>
-      <c r="BJ21" s="26">
+      <c r="BJ21" s="25">
         <v>114966</v>
       </c>
-      <c r="BK21" s="26">
+      <c r="BK21" s="25">
         <v>121998</v>
       </c>
-      <c r="BL21" s="26">
+      <c r="BL21" s="25">
         <v>130582</v>
       </c>
-      <c r="BM21" s="26">
+      <c r="BM21" s="25">
         <v>118945</v>
       </c>
-      <c r="BN21" s="26">
+      <c r="BN21" s="25">
         <v>110824</v>
       </c>
-      <c r="BO21" s="26">
+      <c r="BO21" s="25">
         <v>93271</v>
       </c>
-      <c r="BP21" s="26">
+      <c r="BP21" s="25">
         <v>93148</v>
       </c>
+      <c r="BQ21" s="25">
+        <v>106609</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -5102,112 +5170,119 @@
       <c r="BH22" s="12">
         <v>23102</v>
       </c>
-      <c r="BI22" s="20">
+      <c r="BI22" s="19">
         <v>16731</v>
       </c>
-      <c r="BJ22" s="27">
+      <c r="BJ22" s="26">
         <v>16263</v>
       </c>
-      <c r="BK22" s="27">
+      <c r="BK22" s="26">
         <v>7585</v>
       </c>
-      <c r="BL22" s="27">
+      <c r="BL22" s="26">
         <v>19075</v>
       </c>
-      <c r="BM22" s="27">
+      <c r="BM22" s="26">
         <v>16683</v>
       </c>
-      <c r="BN22" s="27">
+      <c r="BN22" s="26">
         <v>22947</v>
       </c>
-      <c r="BO22" s="27">
+      <c r="BO22" s="26">
         <v>28602</v>
       </c>
-      <c r="BP22" s="27">
+      <c r="BP22" s="26">
         <v>18860</v>
       </c>
+      <c r="BQ22" s="26">
+        <v>22177</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="33"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="33"/>
+      <c r="AU23" s="33"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="33"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="33"/>
+      <c r="BD23" s="33"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="33"/>
+      <c r="BG23" s="33"/>
+      <c r="BH23" s="33"/>
+      <c r="BI23" s="33"/>
+      <c r="BJ23" s="33"/>
+      <c r="BK23" s="33"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
     <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="B6:BP6"/>
     <mergeCell ref="A23:BK23"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
@@ -5222,11 +5297,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,7 +119,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2022</t>
+    <t>I trimestre 2005 - II trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -765,6 +765,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -810,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -833,37 +861,13 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -883,10 +887,12 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,13 +911,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1257,11 +1292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ25"/>
+  <dimension ref="A1:BS25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ7" sqref="BQ7"/>
+      <selection pane="topRight" activeCell="BS15" sqref="BS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1335,10 +1370,11 @@
     <col min="67" max="67" width="15.25" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15.875" style="2" customWidth="1"/>
-    <col min="70" max="16384" width="11.375" style="2"/>
+    <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1400,182 +1436,183 @@
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
     </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
+    <row r="3" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
     </row>
-    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="23">
         <v>2005</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <v>2006</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
         <v>2007</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23">
         <v>2008</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35">
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23">
         <v>2009</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35">
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23">
         <v>2010</v>
       </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35">
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23">
         <v>2011</v>
       </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23">
         <v>2012</v>
       </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35">
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23">
         <v>2013</v>
       </c>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35">
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23">
         <v>2014</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35">
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35">
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23">
         <v>2016</v>
       </c>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35">
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23">
         <v>2017</v>
       </c>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35">
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23">
         <v>2018</v>
       </c>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35">
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23">
         <v>2019</v>
       </c>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35">
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="23">
         <v>2020</v>
       </c>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="30">
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="24">
         <v>2021</v>
       </c>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="28">
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="24">
         <v>2022</v>
       </c>
+      <c r="BR4" s="25"/>
     </row>
-    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1774,296 +1811,304 @@
       <c r="BO5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BP5" s="29" t="s">
+      <c r="BP5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="BQ5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="BR5" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
-      <c r="BQ6" s="38"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="22"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="22"/>
     </row>
-    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="33">
         <v>2844479</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="33">
         <v>2825724</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="33">
         <v>2894746</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="33">
         <v>2893276</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="33">
         <v>2879000</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="33">
         <v>2891859</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="33">
         <v>2892970</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="33">
         <v>2916734</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="33">
         <v>2923283</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="33">
         <v>2995783</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="33">
         <v>3047913</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="33">
         <v>3089794</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="33">
         <v>3066133</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="33">
         <v>3141486</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="33">
         <v>3081134</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="33">
         <v>3037337</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="33">
         <v>3016962</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="33">
         <v>3038366</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="33">
         <v>3104885</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="33">
         <v>3198326</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="33">
         <v>3125868</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="33">
         <v>3171385</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="33">
         <v>3209427</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="33">
         <v>3201925</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="33">
         <v>3203724</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="33">
         <v>3200368</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="33">
         <v>3280531</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="33">
         <v>3285628</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AD7" s="33">
         <v>3286857</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AE7" s="33">
         <v>3328415</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="33">
         <v>3336397</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AG7" s="33">
         <v>3268992</v>
       </c>
-      <c r="AH7" s="16">
+      <c r="AH7" s="33">
         <v>3313107</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AI7" s="33">
         <v>3365048</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="AJ7" s="33">
         <v>3330846</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AK7" s="33">
         <v>3347377</v>
       </c>
-      <c r="AL7" s="16">
+      <c r="AL7" s="33">
         <v>3293553</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="AM7" s="33">
         <v>3282880</v>
       </c>
-      <c r="AN7" s="16">
+      <c r="AN7" s="33">
         <v>3322345</v>
       </c>
-      <c r="AO7" s="16">
+      <c r="AO7" s="33">
         <v>3345254</v>
       </c>
-      <c r="AP7" s="16">
+      <c r="AP7" s="33">
         <v>3395608</v>
       </c>
-      <c r="AQ7" s="16">
+      <c r="AQ7" s="33">
         <v>3355065</v>
       </c>
-      <c r="AR7" s="16">
+      <c r="AR7" s="33">
         <v>3392294</v>
       </c>
-      <c r="AS7" s="16">
+      <c r="AS7" s="33">
         <v>3556156</v>
       </c>
-      <c r="AT7" s="16">
+      <c r="AT7" s="33">
         <v>3495018</v>
       </c>
-      <c r="AU7" s="16">
+      <c r="AU7" s="33">
         <v>3513266</v>
       </c>
-      <c r="AV7" s="16">
+      <c r="AV7" s="33">
         <v>3550695</v>
       </c>
-      <c r="AW7" s="16">
+      <c r="AW7" s="33">
         <v>3571709</v>
       </c>
-      <c r="AX7" s="16">
+      <c r="AX7" s="33">
         <v>3640721</v>
       </c>
-      <c r="AY7" s="16">
+      <c r="AY7" s="33">
         <v>3611268</v>
       </c>
-      <c r="AZ7" s="16">
+      <c r="AZ7" s="33">
         <v>3665360</v>
       </c>
-      <c r="BA7" s="16">
+      <c r="BA7" s="33">
         <v>3647376</v>
       </c>
-      <c r="BB7" s="16">
+      <c r="BB7" s="33">
         <v>3647778</v>
       </c>
-      <c r="BC7" s="16">
+      <c r="BC7" s="33">
         <v>3646192</v>
       </c>
-      <c r="BD7" s="16">
+      <c r="BD7" s="33">
         <v>3678349</v>
       </c>
-      <c r="BE7" s="16">
+      <c r="BE7" s="33">
         <v>3700487</v>
       </c>
-      <c r="BF7" s="16">
+      <c r="BF7" s="33">
         <v>3757440</v>
       </c>
-      <c r="BG7" s="17">
+      <c r="BG7" s="34">
         <v>3734233</v>
       </c>
-      <c r="BH7" s="17">
+      <c r="BH7" s="34">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="18">
+      <c r="BI7" s="35">
         <v>3772715</v>
       </c>
-      <c r="BJ7" s="22">
+      <c r="BJ7" s="14">
         <v>3778375</v>
       </c>
-      <c r="BK7" s="22">
+      <c r="BK7" s="14">
         <v>3576228</v>
       </c>
-      <c r="BL7" s="22">
+      <c r="BL7" s="14">
         <v>3654530</v>
       </c>
-      <c r="BM7" s="22">
+      <c r="BM7" s="14">
         <v>3735596</v>
       </c>
-      <c r="BN7" s="22">
+      <c r="BN7" s="14">
         <v>3824700</v>
       </c>
-      <c r="BO7" s="22">
+      <c r="BO7" s="14">
         <v>3825417</v>
       </c>
-      <c r="BP7" s="22">
+      <c r="BP7" s="14">
         <v>3924612</v>
       </c>
-      <c r="BQ7" s="22">
+      <c r="BQ7" s="14">
         <v>3943727</v>
       </c>
+      <c r="BR7" s="14">
+        <v>3973378</v>
+      </c>
+      <c r="BS7" s="30"/>
     </row>
-    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2238,250 +2283,256 @@
       <c r="BF8" s="6">
         <v>307985</v>
       </c>
-      <c r="BG8" s="12">
+      <c r="BG8" s="40">
         <v>304185</v>
       </c>
-      <c r="BH8" s="12">
+      <c r="BH8" s="40">
         <v>325046</v>
       </c>
-      <c r="BI8" s="19">
+      <c r="BI8" s="41">
         <v>318674</v>
       </c>
-      <c r="BJ8" s="23">
+      <c r="BJ8" s="16">
         <v>275974</v>
       </c>
-      <c r="BK8" s="23">
+      <c r="BK8" s="16">
         <v>285948</v>
       </c>
-      <c r="BL8" s="23">
+      <c r="BL8" s="16">
         <v>298834</v>
       </c>
-      <c r="BM8" s="23">
+      <c r="BM8" s="16">
         <v>306010</v>
       </c>
-      <c r="BN8" s="23">
+      <c r="BN8" s="16">
         <v>329779</v>
       </c>
-      <c r="BO8" s="23">
+      <c r="BO8" s="16">
         <v>352134</v>
       </c>
-      <c r="BP8" s="23">
+      <c r="BP8" s="16">
         <v>371577</v>
       </c>
-      <c r="BQ8" s="23">
+      <c r="BQ8" s="16">
         <v>376300</v>
       </c>
+      <c r="BR8" s="16">
+        <v>408364</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="37">
         <v>279698</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="37">
         <v>275845</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="37">
         <v>346941</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="37">
         <v>318086</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="37">
         <v>280900</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="37">
         <v>284799</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="37">
         <v>295370</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="37">
         <v>249436</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="37">
         <v>256130</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="37">
         <v>260260</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="37">
         <v>295903</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="37">
         <v>293972</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="37">
         <v>272591</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="37">
         <v>273980</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="37">
         <v>302487</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="37">
         <v>262629</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="37">
         <v>237366</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="37">
         <v>270905</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="37">
         <v>315880</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="37">
         <v>332431</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="37">
         <v>288845</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="37">
         <v>301355</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="37">
         <v>345784</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="37">
         <v>342825</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="37">
         <v>295702</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="37">
         <v>290848</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="37">
         <v>346516</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="37">
         <v>304107</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="37">
         <v>298581</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="37">
         <v>290960</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="37">
         <v>331758</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="37">
         <v>308986</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="37">
         <v>323032</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AI9" s="37">
         <v>293590</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AJ9" s="37">
         <v>319887</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="37">
         <v>314482</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AL9" s="37">
         <v>305287</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AM9" s="37">
         <v>314600</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AN9" s="37">
         <v>358453</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AO9" s="37">
         <v>314441</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AP9" s="37">
         <v>321415</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AQ9" s="37">
         <v>317985</v>
       </c>
-      <c r="AR9" s="10">
+      <c r="AR9" s="37">
         <v>323572</v>
       </c>
-      <c r="AS9" s="10">
+      <c r="AS9" s="37">
         <v>324981</v>
       </c>
-      <c r="AT9" s="10">
+      <c r="AT9" s="37">
         <v>320330</v>
       </c>
-      <c r="AU9" s="10">
+      <c r="AU9" s="37">
         <v>309464</v>
       </c>
-      <c r="AV9" s="10">
+      <c r="AV9" s="37">
         <v>334636</v>
       </c>
-      <c r="AW9" s="10">
+      <c r="AW9" s="37">
         <v>304996</v>
       </c>
-      <c r="AX9" s="10">
+      <c r="AX9" s="37">
         <v>303187</v>
       </c>
-      <c r="AY9" s="10">
+      <c r="AY9" s="37">
         <v>313301</v>
       </c>
-      <c r="AZ9" s="10">
+      <c r="AZ9" s="37">
         <v>366668</v>
       </c>
-      <c r="BA9" s="10">
+      <c r="BA9" s="37">
         <v>346696</v>
       </c>
-      <c r="BB9" s="10">
+      <c r="BB9" s="37">
         <v>316579</v>
       </c>
-      <c r="BC9" s="10">
+      <c r="BC9" s="37">
         <v>300670</v>
       </c>
-      <c r="BD9" s="10">
+      <c r="BD9" s="37">
         <v>330652</v>
       </c>
-      <c r="BE9" s="10">
+      <c r="BE9" s="37">
         <v>309252</v>
       </c>
-      <c r="BF9" s="10">
+      <c r="BF9" s="37">
         <v>307985</v>
       </c>
-      <c r="BG9" s="14">
+      <c r="BG9" s="38">
         <v>304185</v>
       </c>
-      <c r="BH9" s="14">
+      <c r="BH9" s="38">
         <v>325046</v>
       </c>
-      <c r="BI9" s="20">
+      <c r="BI9" s="39">
         <v>318674</v>
       </c>
-      <c r="BJ9" s="23">
+      <c r="BJ9" s="31">
         <v>275974</v>
       </c>
-      <c r="BK9" s="23">
+      <c r="BK9" s="31">
         <v>285948</v>
       </c>
-      <c r="BL9" s="23">
+      <c r="BL9" s="31">
         <v>298834</v>
       </c>
-      <c r="BM9" s="23">
+      <c r="BM9" s="31">
         <v>306010</v>
       </c>
-      <c r="BN9" s="23">
+      <c r="BN9" s="31">
         <v>329779</v>
       </c>
-      <c r="BO9" s="23">
+      <c r="BO9" s="31">
         <v>352134</v>
       </c>
-      <c r="BP9" s="23">
+      <c r="BP9" s="31">
         <v>371577</v>
       </c>
-      <c r="BQ9" s="23">
+      <c r="BQ9" s="31">
         <v>376300</v>
       </c>
+      <c r="BR9" s="31">
+        <v>408364</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2656,41 +2707,44 @@
       <c r="BF10" s="6">
         <v>1016600</v>
       </c>
-      <c r="BG10" s="12">
+      <c r="BG10" s="11">
         <v>1020826</v>
       </c>
-      <c r="BH10" s="12">
+      <c r="BH10" s="11">
         <v>997801</v>
       </c>
-      <c r="BI10" s="19">
+      <c r="BI10" s="12">
         <v>1021982</v>
       </c>
-      <c r="BJ10" s="24">
+      <c r="BJ10" s="16">
         <v>1022081</v>
       </c>
-      <c r="BK10" s="24">
+      <c r="BK10" s="16">
         <v>1008404</v>
       </c>
-      <c r="BL10" s="24">
+      <c r="BL10" s="16">
         <v>967684</v>
       </c>
-      <c r="BM10" s="24">
+      <c r="BM10" s="16">
         <v>1028196</v>
       </c>
-      <c r="BN10" s="24">
+      <c r="BN10" s="16">
         <v>1001614</v>
       </c>
-      <c r="BO10" s="24">
+      <c r="BO10" s="16">
         <v>993276</v>
       </c>
-      <c r="BP10" s="24">
+      <c r="BP10" s="16">
         <v>1018574</v>
       </c>
-      <c r="BQ10" s="24">
+      <c r="BQ10" s="16">
         <v>1030887</v>
       </c>
+      <c r="BR10" s="16">
+        <v>1084916</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2865,41 +2919,44 @@
       <c r="BF11" s="8">
         <v>11210</v>
       </c>
-      <c r="BG11" s="11">
+      <c r="BG11" s="10">
         <v>12195</v>
       </c>
-      <c r="BH11" s="11">
+      <c r="BH11" s="10">
         <v>10592</v>
       </c>
-      <c r="BI11" s="21">
+      <c r="BI11" s="13">
         <v>14857</v>
       </c>
-      <c r="BJ11" s="23">
+      <c r="BJ11" s="15">
         <v>13833</v>
       </c>
-      <c r="BK11" s="23">
+      <c r="BK11" s="15">
         <v>12723</v>
       </c>
-      <c r="BL11" s="23">
+      <c r="BL11" s="15">
         <v>11697</v>
       </c>
-      <c r="BM11" s="23">
+      <c r="BM11" s="15">
         <v>8581</v>
       </c>
-      <c r="BN11" s="23">
+      <c r="BN11" s="15">
         <v>9609</v>
       </c>
-      <c r="BO11" s="23">
+      <c r="BO11" s="15">
         <v>11013</v>
       </c>
-      <c r="BP11" s="23">
+      <c r="BP11" s="15">
         <v>11505</v>
       </c>
-      <c r="BQ11" s="23">
+      <c r="BQ11" s="15">
         <v>4692</v>
       </c>
+      <c r="BR11" s="15">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3074,41 +3131,44 @@
       <c r="BF12" s="8">
         <v>694291</v>
       </c>
-      <c r="BG12" s="11">
+      <c r="BG12" s="10">
         <v>687881</v>
       </c>
-      <c r="BH12" s="11">
+      <c r="BH12" s="10">
         <v>694328</v>
       </c>
-      <c r="BI12" s="21">
+      <c r="BI12" s="13">
         <v>697952</v>
       </c>
-      <c r="BJ12" s="23">
+      <c r="BJ12" s="15">
         <v>700917</v>
       </c>
-      <c r="BK12" s="23">
+      <c r="BK12" s="15">
         <v>678373</v>
       </c>
-      <c r="BL12" s="23">
+      <c r="BL12" s="15">
         <v>635309</v>
       </c>
-      <c r="BM12" s="23">
+      <c r="BM12" s="15">
         <v>680330</v>
       </c>
-      <c r="BN12" s="23">
+      <c r="BN12" s="15">
         <v>676852</v>
       </c>
-      <c r="BO12" s="23">
+      <c r="BO12" s="15">
         <v>691638</v>
       </c>
-      <c r="BP12" s="23">
+      <c r="BP12" s="15">
         <v>721939</v>
       </c>
-      <c r="BQ12" s="23">
+      <c r="BQ12" s="15">
         <v>727155</v>
       </c>
+      <c r="BR12" s="15">
+        <v>756185</v>
+      </c>
     </row>
-    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3283,41 +3343,44 @@
       <c r="BF13" s="8">
         <v>311099</v>
       </c>
-      <c r="BG13" s="11">
+      <c r="BG13" s="10">
         <v>320750</v>
       </c>
-      <c r="BH13" s="11">
+      <c r="BH13" s="10">
         <v>292881</v>
       </c>
-      <c r="BI13" s="21">
+      <c r="BI13" s="13">
         <v>309173</v>
       </c>
-      <c r="BJ13" s="23">
+      <c r="BJ13" s="15">
         <v>307331</v>
       </c>
-      <c r="BK13" s="23">
+      <c r="BK13" s="15">
         <v>317308</v>
       </c>
-      <c r="BL13" s="23">
+      <c r="BL13" s="15">
         <v>320678</v>
       </c>
-      <c r="BM13" s="23">
+      <c r="BM13" s="15">
         <v>339285</v>
       </c>
-      <c r="BN13" s="23">
+      <c r="BN13" s="15">
         <v>315153</v>
       </c>
-      <c r="BO13" s="23">
+      <c r="BO13" s="15">
         <v>290625</v>
       </c>
-      <c r="BP13" s="23">
+      <c r="BP13" s="15">
         <v>285130</v>
       </c>
-      <c r="BQ13" s="23">
+      <c r="BQ13" s="15">
         <v>299040</v>
       </c>
+      <c r="BR13" s="15">
+        <v>317731</v>
+      </c>
     </row>
-    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3492,41 +3555,44 @@
       <c r="BF14" s="6">
         <v>2422155</v>
       </c>
-      <c r="BG14" s="12">
+      <c r="BG14" s="11">
         <v>2394130</v>
       </c>
-      <c r="BH14" s="12">
+      <c r="BH14" s="11">
         <v>2415333</v>
       </c>
-      <c r="BI14" s="19">
+      <c r="BI14" s="12">
         <v>2415328</v>
       </c>
-      <c r="BJ14" s="24">
+      <c r="BJ14" s="16">
         <v>2464057</v>
       </c>
-      <c r="BK14" s="24">
+      <c r="BK14" s="16">
         <v>2274291</v>
       </c>
-      <c r="BL14" s="24">
+      <c r="BL14" s="16">
         <v>2368937</v>
       </c>
-      <c r="BM14" s="24">
+      <c r="BM14" s="16">
         <v>2384707</v>
       </c>
-      <c r="BN14" s="24">
+      <c r="BN14" s="16">
         <v>2470360</v>
       </c>
-      <c r="BO14" s="24">
+      <c r="BO14" s="16">
         <v>2451405</v>
       </c>
-      <c r="BP14" s="24">
+      <c r="BP14" s="16">
         <v>2515601</v>
       </c>
-      <c r="BQ14" s="24">
+      <c r="BQ14" s="16">
         <v>2514363</v>
       </c>
+      <c r="BR14" s="16">
+        <v>2462719</v>
+      </c>
     </row>
-    <row r="15" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3701,41 +3767,44 @@
       <c r="BF15" s="8">
         <v>799651</v>
       </c>
-      <c r="BG15" s="11">
+      <c r="BG15" s="10">
         <v>771067</v>
       </c>
-      <c r="BH15" s="11">
+      <c r="BH15" s="10">
         <v>824616</v>
       </c>
-      <c r="BI15" s="21">
+      <c r="BI15" s="13">
         <v>820815</v>
       </c>
-      <c r="BJ15" s="23">
+      <c r="BJ15" s="15">
         <v>800526</v>
       </c>
-      <c r="BK15" s="23">
+      <c r="BK15" s="15">
         <v>796652</v>
       </c>
-      <c r="BL15" s="23">
+      <c r="BL15" s="15">
         <v>840238</v>
       </c>
-      <c r="BM15" s="23">
+      <c r="BM15" s="15">
         <v>795201</v>
       </c>
-      <c r="BN15" s="23">
+      <c r="BN15" s="15">
         <v>828020</v>
       </c>
-      <c r="BO15" s="23">
+      <c r="BO15" s="15">
         <v>808309</v>
       </c>
-      <c r="BP15" s="23">
+      <c r="BP15" s="15">
         <v>857950</v>
       </c>
-      <c r="BQ15" s="23">
+      <c r="BQ15" s="15">
         <v>844493</v>
       </c>
+      <c r="BR15" s="15">
+        <v>821818</v>
+      </c>
     </row>
-    <row r="16" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3910,41 +3979,44 @@
       <c r="BF16" s="8">
         <v>362553</v>
       </c>
-      <c r="BG16" s="11">
+      <c r="BG16" s="10">
         <v>361684</v>
       </c>
-      <c r="BH16" s="11">
+      <c r="BH16" s="10">
         <v>329190</v>
       </c>
-      <c r="BI16" s="21">
+      <c r="BI16" s="13">
         <v>318190</v>
       </c>
-      <c r="BJ16" s="23">
+      <c r="BJ16" s="15">
         <v>322871</v>
       </c>
-      <c r="BK16" s="23">
+      <c r="BK16" s="15">
         <v>256152</v>
       </c>
-      <c r="BL16" s="23">
+      <c r="BL16" s="15">
         <v>253075</v>
       </c>
-      <c r="BM16" s="23">
+      <c r="BM16" s="15">
         <v>278007</v>
       </c>
-      <c r="BN16" s="23">
+      <c r="BN16" s="15">
         <v>315832</v>
       </c>
-      <c r="BO16" s="23">
+      <c r="BO16" s="15">
         <v>321269</v>
       </c>
-      <c r="BP16" s="23">
+      <c r="BP16" s="15">
         <v>337162</v>
       </c>
-      <c r="BQ16" s="23">
+      <c r="BQ16" s="15">
         <v>331993</v>
       </c>
+      <c r="BR16" s="15">
+        <v>334244</v>
+      </c>
     </row>
-    <row r="17" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -4119,41 +4191,44 @@
       <c r="BF17" s="8">
         <v>164439</v>
       </c>
-      <c r="BG17" s="11">
+      <c r="BG17" s="10">
         <v>154879</v>
       </c>
-      <c r="BH17" s="11">
+      <c r="BH17" s="10">
         <v>152741</v>
       </c>
-      <c r="BI17" s="21">
+      <c r="BI17" s="13">
         <v>159043</v>
       </c>
-      <c r="BJ17" s="23">
+      <c r="BJ17" s="15">
         <v>155632</v>
       </c>
-      <c r="BK17" s="23">
+      <c r="BK17" s="15">
         <v>154740</v>
       </c>
-      <c r="BL17" s="23">
+      <c r="BL17" s="15">
         <v>159147</v>
       </c>
-      <c r="BM17" s="23">
+      <c r="BM17" s="15">
         <v>159238</v>
       </c>
-      <c r="BN17" s="23">
+      <c r="BN17" s="15">
         <v>168136</v>
       </c>
-      <c r="BO17" s="23">
+      <c r="BO17" s="15">
         <v>175584</v>
       </c>
-      <c r="BP17" s="23">
+      <c r="BP17" s="15">
         <v>171262</v>
       </c>
-      <c r="BQ17" s="23">
+      <c r="BQ17" s="15">
         <v>170600</v>
       </c>
+      <c r="BR17" s="15">
+        <v>164087</v>
+      </c>
     </row>
-    <row r="18" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4328,41 +4403,44 @@
       <c r="BF18" s="8">
         <v>320338</v>
       </c>
-      <c r="BG18" s="11">
+      <c r="BG18" s="10">
         <v>308602</v>
       </c>
-      <c r="BH18" s="11">
+      <c r="BH18" s="10">
         <v>320862</v>
       </c>
-      <c r="BI18" s="21">
+      <c r="BI18" s="13">
         <v>309747</v>
       </c>
-      <c r="BJ18" s="25">
+      <c r="BJ18" s="17">
         <v>337147</v>
       </c>
-      <c r="BK18" s="25">
+      <c r="BK18" s="17">
         <v>298299</v>
       </c>
-      <c r="BL18" s="25">
+      <c r="BL18" s="17">
         <v>306634</v>
       </c>
-      <c r="BM18" s="25">
+      <c r="BM18" s="17">
         <v>314201</v>
       </c>
-      <c r="BN18" s="25">
+      <c r="BN18" s="17">
         <v>322092</v>
       </c>
-      <c r="BO18" s="25">
+      <c r="BO18" s="17">
         <v>343143</v>
       </c>
-      <c r="BP18" s="25">
+      <c r="BP18" s="17">
         <v>340891</v>
       </c>
-      <c r="BQ18" s="25">
+      <c r="BQ18" s="17">
         <v>346249</v>
       </c>
+      <c r="BR18" s="17">
+        <v>320803</v>
+      </c>
     </row>
-    <row r="19" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4537,41 +4615,44 @@
       <c r="BF19" s="8">
         <v>265389</v>
       </c>
-      <c r="BG19" s="11">
+      <c r="BG19" s="10">
         <v>271904</v>
       </c>
-      <c r="BH19" s="11">
+      <c r="BH19" s="10">
         <v>267098</v>
       </c>
-      <c r="BI19" s="21">
+      <c r="BI19" s="13">
         <v>263453</v>
       </c>
-      <c r="BJ19" s="25">
+      <c r="BJ19" s="17">
         <v>283499</v>
       </c>
-      <c r="BK19" s="25">
+      <c r="BK19" s="17">
         <v>287271</v>
       </c>
-      <c r="BL19" s="25">
+      <c r="BL19" s="17">
         <v>286249</v>
       </c>
-      <c r="BM19" s="25">
+      <c r="BM19" s="17">
         <v>305654</v>
       </c>
-      <c r="BN19" s="25">
+      <c r="BN19" s="17">
         <v>311305</v>
       </c>
-      <c r="BO19" s="25">
+      <c r="BO19" s="17">
         <v>319551</v>
       </c>
-      <c r="BP19" s="25">
+      <c r="BP19" s="17">
         <v>310073</v>
       </c>
-      <c r="BQ19" s="25">
+      <c r="BQ19" s="17">
         <v>311112</v>
       </c>
+      <c r="BR19" s="17">
+        <v>312942</v>
+      </c>
     </row>
-    <row r="20" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4746,41 +4827,44 @@
       <c r="BF20" s="8">
         <v>404777</v>
       </c>
-      <c r="BG20" s="11">
+      <c r="BG20" s="10">
         <v>417898</v>
       </c>
-      <c r="BH20" s="11">
+      <c r="BH20" s="10">
         <v>411636</v>
       </c>
-      <c r="BI20" s="21">
+      <c r="BI20" s="13">
         <v>430849</v>
       </c>
-      <c r="BJ20" s="25">
+      <c r="BJ20" s="17">
         <v>449416</v>
       </c>
-      <c r="BK20" s="25">
+      <c r="BK20" s="17">
         <v>359179</v>
       </c>
-      <c r="BL20" s="25">
+      <c r="BL20" s="17">
         <v>393012</v>
       </c>
-      <c r="BM20" s="25">
+      <c r="BM20" s="17">
         <v>413461</v>
       </c>
-      <c r="BN20" s="25">
+      <c r="BN20" s="17">
         <v>414151</v>
       </c>
-      <c r="BO20" s="25">
+      <c r="BO20" s="17">
         <v>390278</v>
       </c>
-      <c r="BP20" s="25">
+      <c r="BP20" s="17">
         <v>405115</v>
       </c>
-      <c r="BQ20" s="25">
+      <c r="BQ20" s="17">
         <v>403307</v>
       </c>
+      <c r="BR20" s="17">
+        <v>400293</v>
+      </c>
     </row>
-    <row r="21" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -4955,41 +5039,44 @@
       <c r="BF21" s="8">
         <v>105008</v>
       </c>
-      <c r="BG21" s="11">
+      <c r="BG21" s="10">
         <v>108096</v>
       </c>
-      <c r="BH21" s="11">
+      <c r="BH21" s="10">
         <v>109190</v>
       </c>
-      <c r="BI21" s="21">
+      <c r="BI21" s="13">
         <v>113231</v>
       </c>
-      <c r="BJ21" s="25">
+      <c r="BJ21" s="17">
         <v>114966</v>
       </c>
-      <c r="BK21" s="25">
+      <c r="BK21" s="17">
         <v>121998</v>
       </c>
-      <c r="BL21" s="25">
+      <c r="BL21" s="17">
         <v>130582</v>
       </c>
-      <c r="BM21" s="25">
+      <c r="BM21" s="17">
         <v>118945</v>
       </c>
-      <c r="BN21" s="25">
+      <c r="BN21" s="17">
         <v>110824</v>
       </c>
-      <c r="BO21" s="25">
+      <c r="BO21" s="17">
         <v>93271</v>
       </c>
-      <c r="BP21" s="25">
+      <c r="BP21" s="17">
         <v>93148</v>
       </c>
-      <c r="BQ21" s="25">
+      <c r="BQ21" s="17">
         <v>106609</v>
       </c>
+      <c r="BR21" s="17">
+        <v>108532</v>
+      </c>
     </row>
-    <row r="22" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -5164,124 +5251,123 @@
       <c r="BF22" s="6">
         <v>10700</v>
       </c>
-      <c r="BG22" s="12">
+      <c r="BG22" s="11">
         <v>15092</v>
       </c>
-      <c r="BH22" s="12">
+      <c r="BH22" s="11">
         <v>23102</v>
       </c>
-      <c r="BI22" s="19">
+      <c r="BI22" s="12">
         <v>16731</v>
       </c>
-      <c r="BJ22" s="26">
+      <c r="BJ22" s="18">
         <v>16263</v>
       </c>
-      <c r="BK22" s="26">
+      <c r="BK22" s="18">
         <v>7585</v>
       </c>
-      <c r="BL22" s="26">
+      <c r="BL22" s="18">
         <v>19075</v>
       </c>
-      <c r="BM22" s="26">
+      <c r="BM22" s="18">
         <v>16683</v>
       </c>
-      <c r="BN22" s="26">
+      <c r="BN22" s="18">
         <v>22947</v>
       </c>
-      <c r="BO22" s="26">
+      <c r="BO22" s="18">
         <v>28602</v>
       </c>
-      <c r="BP22" s="26">
+      <c r="BP22" s="18">
         <v>18860</v>
       </c>
-      <c r="BQ22" s="26">
+      <c r="BQ22" s="18">
         <v>22177</v>
       </c>
+      <c r="BR22" s="18">
+        <v>17379</v>
+      </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="33"/>
-      <c r="AY23" s="33"/>
-      <c r="AZ23" s="33"/>
-      <c r="BA23" s="33"/>
-      <c r="BB23" s="33"/>
-      <c r="BC23" s="33"/>
-      <c r="BD23" s="33"/>
-      <c r="BE23" s="33"/>
-      <c r="BF23" s="33"/>
-      <c r="BG23" s="33"/>
-      <c r="BH23" s="33"/>
-      <c r="BI23" s="33"/>
-      <c r="BJ23" s="33"/>
-      <c r="BK23" s="33"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="27"/>
+      <c r="BJ23" s="27"/>
+      <c r="BK23" s="27"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
+  <mergeCells count="21">
+    <mergeCell ref="BQ4:BR4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A23:BK23"/>
     <mergeCell ref="A3:BF3"/>
@@ -5297,6 +5383,11 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,7 +119,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2022</t>
+    <t>I trimestre 2005 - III trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -892,27 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -946,6 +925,27 @@
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1292,11 +1292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS25"/>
+  <dimension ref="A1:BT25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS15" sqref="BS15"/>
+      <selection pane="topRight" activeCell="BU14" sqref="BU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1371,10 +1371,11 @@
     <col min="68" max="68" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15.875" style="2" customWidth="1"/>
     <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="11.375" style="2"/>
+    <col min="71" max="71" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1436,183 +1437,184 @@
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
     </row>
-    <row r="2" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="28"/>
+    <row r="3" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
     </row>
-    <row r="4" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="40">
         <v>2005</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>2006</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40">
         <v>2007</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40">
         <v>2008</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23">
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40">
         <v>2009</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23">
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40">
         <v>2010</v>
       </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23">
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40">
         <v>2011</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40">
         <v>2012</v>
       </c>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23">
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40">
         <v>2013</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23">
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40">
         <v>2014</v>
       </c>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23">
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23">
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40">
         <v>2016</v>
       </c>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23">
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40">
         <v>2017</v>
       </c>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23">
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40">
         <v>2018</v>
       </c>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="23">
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40">
         <v>2019</v>
       </c>
-      <c r="BG4" s="23"/>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="23"/>
-      <c r="BJ4" s="23">
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40">
         <v>2020</v>
       </c>
-      <c r="BK4" s="23"/>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="24">
+      <c r="BK4" s="40"/>
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="35">
         <v>2021</v>
       </c>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="24">
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="37"/>
+      <c r="BQ4" s="35">
         <v>2022</v>
       </c>
-      <c r="BR4" s="25"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
     </row>
-    <row r="5" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1808,20 +1810,23 @@
       <c r="BN5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BO5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="BP5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BQ5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BR5" s="20" t="s">
         <v>2</v>
       </c>
+      <c r="BS5" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1894,189 +1899,190 @@
       <c r="BP6" s="22"/>
       <c r="BQ6" s="22"/>
       <c r="BR6" s="22"/>
+      <c r="BS6" s="22"/>
     </row>
-    <row r="7" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="26">
         <v>2844479</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <v>2825724</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <v>2894746</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="26">
         <v>2893276</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="26">
         <v>2879000</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>2891859</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="26">
         <v>2892970</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="26">
         <v>2916734</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="26">
         <v>2923283</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="26">
         <v>2995783</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="26">
         <v>3047913</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="26">
         <v>3089794</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="26">
         <v>3066133</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="26">
         <v>3141486</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="26">
         <v>3081134</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="26">
         <v>3037337</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="26">
         <v>3016962</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="26">
         <v>3038366</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="26">
         <v>3104885</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="26">
         <v>3198326</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="26">
         <v>3125868</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="26">
         <v>3171385</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="26">
         <v>3209427</v>
       </c>
-      <c r="Y7" s="33">
+      <c r="Y7" s="26">
         <v>3201925</v>
       </c>
-      <c r="Z7" s="33">
+      <c r="Z7" s="26">
         <v>3203724</v>
       </c>
-      <c r="AA7" s="33">
+      <c r="AA7" s="26">
         <v>3200368</v>
       </c>
-      <c r="AB7" s="33">
+      <c r="AB7" s="26">
         <v>3280531</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="26">
         <v>3285628</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="26">
         <v>3286857</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="26">
         <v>3328415</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AF7" s="26">
         <v>3336397</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AG7" s="26">
         <v>3268992</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="26">
         <v>3313107</v>
       </c>
-      <c r="AI7" s="33">
+      <c r="AI7" s="26">
         <v>3365048</v>
       </c>
-      <c r="AJ7" s="33">
+      <c r="AJ7" s="26">
         <v>3330846</v>
       </c>
-      <c r="AK7" s="33">
+      <c r="AK7" s="26">
         <v>3347377</v>
       </c>
-      <c r="AL7" s="33">
+      <c r="AL7" s="26">
         <v>3293553</v>
       </c>
-      <c r="AM7" s="33">
+      <c r="AM7" s="26">
         <v>3282880</v>
       </c>
-      <c r="AN7" s="33">
+      <c r="AN7" s="26">
         <v>3322345</v>
       </c>
-      <c r="AO7" s="33">
+      <c r="AO7" s="26">
         <v>3345254</v>
       </c>
-      <c r="AP7" s="33">
+      <c r="AP7" s="26">
         <v>3395608</v>
       </c>
-      <c r="AQ7" s="33">
+      <c r="AQ7" s="26">
         <v>3355065</v>
       </c>
-      <c r="AR7" s="33">
+      <c r="AR7" s="26">
         <v>3392294</v>
       </c>
-      <c r="AS7" s="33">
+      <c r="AS7" s="26">
         <v>3556156</v>
       </c>
-      <c r="AT7" s="33">
+      <c r="AT7" s="26">
         <v>3495018</v>
       </c>
-      <c r="AU7" s="33">
+      <c r="AU7" s="26">
         <v>3513266</v>
       </c>
-      <c r="AV7" s="33">
+      <c r="AV7" s="26">
         <v>3550695</v>
       </c>
-      <c r="AW7" s="33">
+      <c r="AW7" s="26">
         <v>3571709</v>
       </c>
-      <c r="AX7" s="33">
+      <c r="AX7" s="26">
         <v>3640721</v>
       </c>
-      <c r="AY7" s="33">
+      <c r="AY7" s="26">
         <v>3611268</v>
       </c>
-      <c r="AZ7" s="33">
+      <c r="AZ7" s="26">
         <v>3665360</v>
       </c>
-      <c r="BA7" s="33">
+      <c r="BA7" s="26">
         <v>3647376</v>
       </c>
-      <c r="BB7" s="33">
+      <c r="BB7" s="26">
         <v>3647778</v>
       </c>
-      <c r="BC7" s="33">
+      <c r="BC7" s="26">
         <v>3646192</v>
       </c>
-      <c r="BD7" s="33">
+      <c r="BD7" s="26">
         <v>3678349</v>
       </c>
-      <c r="BE7" s="33">
+      <c r="BE7" s="26">
         <v>3700487</v>
       </c>
-      <c r="BF7" s="33">
+      <c r="BF7" s="26">
         <v>3757440</v>
       </c>
-      <c r="BG7" s="34">
+      <c r="BG7" s="27">
         <v>3734233</v>
       </c>
-      <c r="BH7" s="34">
+      <c r="BH7" s="27">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="35">
+      <c r="BI7" s="28">
         <v>3772715</v>
       </c>
       <c r="BJ7" s="14">
@@ -2106,9 +2112,12 @@
       <c r="BR7" s="14">
         <v>3973378</v>
       </c>
-      <c r="BS7" s="30"/>
+      <c r="BS7" s="14">
+        <v>4023627</v>
+      </c>
+      <c r="BT7" s="23"/>
     </row>
-    <row r="8" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2283,13 +2292,13 @@
       <c r="BF8" s="6">
         <v>307985</v>
       </c>
-      <c r="BG8" s="40">
+      <c r="BG8" s="33">
         <v>304185</v>
       </c>
-      <c r="BH8" s="40">
+      <c r="BH8" s="33">
         <v>325046</v>
       </c>
-      <c r="BI8" s="41">
+      <c r="BI8" s="34">
         <v>318674</v>
       </c>
       <c r="BJ8" s="16">
@@ -2319,220 +2328,226 @@
       <c r="BR8" s="16">
         <v>408364</v>
       </c>
+      <c r="BS8" s="16">
+        <v>426362</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="30">
         <v>279698</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="30">
         <v>275845</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="30">
         <v>346941</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="30">
         <v>318086</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="30">
         <v>280900</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="30">
         <v>284799</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="30">
         <v>295370</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="30">
         <v>249436</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="30">
         <v>256130</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="30">
         <v>260260</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="30">
         <v>295903</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="30">
         <v>293972</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="30">
         <v>272591</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="30">
         <v>273980</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="30">
         <v>302487</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="30">
         <v>262629</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="30">
         <v>237366</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="30">
         <v>270905</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9" s="30">
         <v>315880</v>
       </c>
-      <c r="U9" s="37">
+      <c r="U9" s="30">
         <v>332431</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="30">
         <v>288845</v>
       </c>
-      <c r="W9" s="37">
+      <c r="W9" s="30">
         <v>301355</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="30">
         <v>345784</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="30">
         <v>342825</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="30">
         <v>295702</v>
       </c>
-      <c r="AA9" s="37">
+      <c r="AA9" s="30">
         <v>290848</v>
       </c>
-      <c r="AB9" s="37">
+      <c r="AB9" s="30">
         <v>346516</v>
       </c>
-      <c r="AC9" s="37">
+      <c r="AC9" s="30">
         <v>304107</v>
       </c>
-      <c r="AD9" s="37">
+      <c r="AD9" s="30">
         <v>298581</v>
       </c>
-      <c r="AE9" s="37">
+      <c r="AE9" s="30">
         <v>290960</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AF9" s="30">
         <v>331758</v>
       </c>
-      <c r="AG9" s="37">
+      <c r="AG9" s="30">
         <v>308986</v>
       </c>
-      <c r="AH9" s="37">
+      <c r="AH9" s="30">
         <v>323032</v>
       </c>
-      <c r="AI9" s="37">
+      <c r="AI9" s="30">
         <v>293590</v>
       </c>
-      <c r="AJ9" s="37">
+      <c r="AJ9" s="30">
         <v>319887</v>
       </c>
-      <c r="AK9" s="37">
+      <c r="AK9" s="30">
         <v>314482</v>
       </c>
-      <c r="AL9" s="37">
+      <c r="AL9" s="30">
         <v>305287</v>
       </c>
-      <c r="AM9" s="37">
+      <c r="AM9" s="30">
         <v>314600</v>
       </c>
-      <c r="AN9" s="37">
+      <c r="AN9" s="30">
         <v>358453</v>
       </c>
-      <c r="AO9" s="37">
+      <c r="AO9" s="30">
         <v>314441</v>
       </c>
-      <c r="AP9" s="37">
+      <c r="AP9" s="30">
         <v>321415</v>
       </c>
-      <c r="AQ9" s="37">
+      <c r="AQ9" s="30">
         <v>317985</v>
       </c>
-      <c r="AR9" s="37">
+      <c r="AR9" s="30">
         <v>323572</v>
       </c>
-      <c r="AS9" s="37">
+      <c r="AS9" s="30">
         <v>324981</v>
       </c>
-      <c r="AT9" s="37">
+      <c r="AT9" s="30">
         <v>320330</v>
       </c>
-      <c r="AU9" s="37">
+      <c r="AU9" s="30">
         <v>309464</v>
       </c>
-      <c r="AV9" s="37">
+      <c r="AV9" s="30">
         <v>334636</v>
       </c>
-      <c r="AW9" s="37">
+      <c r="AW9" s="30">
         <v>304996</v>
       </c>
-      <c r="AX9" s="37">
+      <c r="AX9" s="30">
         <v>303187</v>
       </c>
-      <c r="AY9" s="37">
+      <c r="AY9" s="30">
         <v>313301</v>
       </c>
-      <c r="AZ9" s="37">
+      <c r="AZ9" s="30">
         <v>366668</v>
       </c>
-      <c r="BA9" s="37">
+      <c r="BA9" s="30">
         <v>346696</v>
       </c>
-      <c r="BB9" s="37">
+      <c r="BB9" s="30">
         <v>316579</v>
       </c>
-      <c r="BC9" s="37">
+      <c r="BC9" s="30">
         <v>300670</v>
       </c>
-      <c r="BD9" s="37">
+      <c r="BD9" s="30">
         <v>330652</v>
       </c>
-      <c r="BE9" s="37">
+      <c r="BE9" s="30">
         <v>309252</v>
       </c>
-      <c r="BF9" s="37">
+      <c r="BF9" s="30">
         <v>307985</v>
       </c>
-      <c r="BG9" s="38">
+      <c r="BG9" s="31">
         <v>304185</v>
       </c>
-      <c r="BH9" s="38">
+      <c r="BH9" s="31">
         <v>325046</v>
       </c>
-      <c r="BI9" s="39">
+      <c r="BI9" s="32">
         <v>318674</v>
       </c>
-      <c r="BJ9" s="31">
+      <c r="BJ9" s="24">
         <v>275974</v>
       </c>
-      <c r="BK9" s="31">
+      <c r="BK9" s="24">
         <v>285948</v>
       </c>
-      <c r="BL9" s="31">
+      <c r="BL9" s="24">
         <v>298834</v>
       </c>
-      <c r="BM9" s="31">
+      <c r="BM9" s="24">
         <v>306010</v>
       </c>
-      <c r="BN9" s="31">
+      <c r="BN9" s="24">
         <v>329779</v>
       </c>
-      <c r="BO9" s="31">
+      <c r="BO9" s="24">
         <v>352134</v>
       </c>
-      <c r="BP9" s="31">
+      <c r="BP9" s="24">
         <v>371577</v>
       </c>
-      <c r="BQ9" s="31">
+      <c r="BQ9" s="24">
         <v>376300</v>
       </c>
-      <c r="BR9" s="31">
+      <c r="BR9" s="24">
         <v>408364</v>
       </c>
+      <c r="BS9" s="24">
+        <v>426362</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2743,8 +2758,11 @@
       <c r="BR10" s="16">
         <v>1084916</v>
       </c>
+      <c r="BS10" s="16">
+        <v>1101183</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2955,8 +2973,11 @@
       <c r="BR11" s="15">
         <v>11000</v>
       </c>
+      <c r="BS11" s="15">
+        <v>9948</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3167,8 +3188,11 @@
       <c r="BR12" s="15">
         <v>756185</v>
       </c>
+      <c r="BS12" s="15">
+        <v>776607</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3379,8 +3403,11 @@
       <c r="BR13" s="15">
         <v>317731</v>
       </c>
+      <c r="BS13" s="15">
+        <v>314628</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3591,8 +3618,11 @@
       <c r="BR14" s="16">
         <v>2462719</v>
       </c>
+      <c r="BS14" s="16">
+        <v>2472566</v>
+      </c>
     </row>
-    <row r="15" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3803,8 +3833,11 @@
       <c r="BR15" s="15">
         <v>821818</v>
       </c>
+      <c r="BS15" s="15">
+        <v>838455</v>
+      </c>
     </row>
-    <row r="16" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -4015,8 +4048,11 @@
       <c r="BR16" s="15">
         <v>334244</v>
       </c>
+      <c r="BS16" s="15">
+        <v>334390</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -4227,8 +4263,11 @@
       <c r="BR17" s="15">
         <v>164087</v>
       </c>
+      <c r="BS17" s="15">
+        <v>166018</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4439,8 +4478,11 @@
       <c r="BR18" s="17">
         <v>320803</v>
       </c>
+      <c r="BS18" s="17">
+        <v>331121</v>
+      </c>
     </row>
-    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4651,8 +4693,11 @@
       <c r="BR19" s="17">
         <v>312942</v>
       </c>
+      <c r="BS19" s="17">
+        <v>276786</v>
+      </c>
     </row>
-    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4863,8 +4908,11 @@
       <c r="BR20" s="17">
         <v>400293</v>
       </c>
+      <c r="BS20" s="17">
+        <v>396057</v>
+      </c>
     </row>
-    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -5075,8 +5123,11 @@
       <c r="BR21" s="17">
         <v>108532</v>
       </c>
+      <c r="BS21" s="17">
+        <v>129739</v>
+      </c>
     </row>
-    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -5287,87 +5338,95 @@
       <c r="BR22" s="18">
         <v>17379</v>
       </c>
+      <c r="BS22" s="18">
+        <v>23516</v>
+      </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="27"/>
-      <c r="BC23" s="27"/>
-      <c r="BD23" s="27"/>
-      <c r="BE23" s="27"/>
-      <c r="BF23" s="27"/>
-      <c r="BG23" s="27"/>
-      <c r="BH23" s="27"/>
-      <c r="BI23" s="27"/>
-      <c r="BJ23" s="27"/>
-      <c r="BK23" s="27"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="38"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="38"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BQ4:BS4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A23:BK23"/>
     <mergeCell ref="A3:BF3"/>
@@ -5383,11 +5442,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,7 +119,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - III trimestre de 2022</t>
+    <t>I trimestre 2005 - IV trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -892,7 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -926,6 +925,9 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,9 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,8 +1294,8 @@
   <dimension ref="A1:BT25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU14" sqref="BU14"/>
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT28" sqref="BT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1371,8 @@
     <col min="69" max="69" width="15.875" style="2" customWidth="1"/>
     <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="11.375" style="2"/>
+    <col min="72" max="72" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1503,104 +1503,104 @@
       <c r="BF3" s="39"/>
     </row>
     <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="34">
         <v>2005</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34">
         <v>2006</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34">
         <v>2007</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34">
         <v>2008</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40">
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34">
         <v>2009</v>
       </c>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40">
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34">
         <v>2010</v>
       </c>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40">
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34">
         <v>2011</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40">
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34">
         <v>2012</v>
       </c>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40">
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34">
         <v>2013</v>
       </c>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40">
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34">
         <v>2014</v>
       </c>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40">
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40">
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34">
         <v>2016</v>
       </c>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40">
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34">
         <v>2017</v>
       </c>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40">
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34">
         <v>2018</v>
       </c>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40">
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34">
         <v>2019</v>
       </c>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40">
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34">
         <v>2020</v>
       </c>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="40"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
       <c r="BM4" s="35">
         <v>2021</v>
       </c>
@@ -1612,9 +1612,10 @@
       </c>
       <c r="BR4" s="36"/>
       <c r="BS4" s="36"/>
+      <c r="BT4" s="37"/>
     </row>
     <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1824,6 +1825,9 @@
       </c>
       <c r="BS5" s="20" t="s">
         <v>3</v>
+      </c>
+      <c r="BT5" s="20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1900,189 +1904,190 @@
       <c r="BQ6" s="22"/>
       <c r="BR6" s="22"/>
       <c r="BS6" s="22"/>
+      <c r="BT6" s="22"/>
     </row>
     <row r="7" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>2844479</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>2825724</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>2894746</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>2893276</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>2879000</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>2891859</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>2892970</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>2916734</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>2923283</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>2995783</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>3047913</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>3089794</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>3066133</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <v>3141486</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>3081134</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>3037337</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <v>3016962</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="25">
         <v>3038366</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="25">
         <v>3104885</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="25">
         <v>3198326</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="25">
         <v>3125868</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="25">
         <v>3171385</v>
       </c>
-      <c r="X7" s="26">
+      <c r="X7" s="25">
         <v>3209427</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="25">
         <v>3201925</v>
       </c>
-      <c r="Z7" s="26">
+      <c r="Z7" s="25">
         <v>3203724</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AA7" s="25">
         <v>3200368</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AB7" s="25">
         <v>3280531</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AC7" s="25">
         <v>3285628</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AD7" s="25">
         <v>3286857</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AE7" s="25">
         <v>3328415</v>
       </c>
-      <c r="AF7" s="26">
+      <c r="AF7" s="25">
         <v>3336397</v>
       </c>
-      <c r="AG7" s="26">
+      <c r="AG7" s="25">
         <v>3268992</v>
       </c>
-      <c r="AH7" s="26">
+      <c r="AH7" s="25">
         <v>3313107</v>
       </c>
-      <c r="AI7" s="26">
+      <c r="AI7" s="25">
         <v>3365048</v>
       </c>
-      <c r="AJ7" s="26">
+      <c r="AJ7" s="25">
         <v>3330846</v>
       </c>
-      <c r="AK7" s="26">
+      <c r="AK7" s="25">
         <v>3347377</v>
       </c>
-      <c r="AL7" s="26">
+      <c r="AL7" s="25">
         <v>3293553</v>
       </c>
-      <c r="AM7" s="26">
+      <c r="AM7" s="25">
         <v>3282880</v>
       </c>
-      <c r="AN7" s="26">
+      <c r="AN7" s="25">
         <v>3322345</v>
       </c>
-      <c r="AO7" s="26">
+      <c r="AO7" s="25">
         <v>3345254</v>
       </c>
-      <c r="AP7" s="26">
+      <c r="AP7" s="25">
         <v>3395608</v>
       </c>
-      <c r="AQ7" s="26">
+      <c r="AQ7" s="25">
         <v>3355065</v>
       </c>
-      <c r="AR7" s="26">
+      <c r="AR7" s="25">
         <v>3392294</v>
       </c>
-      <c r="AS7" s="26">
+      <c r="AS7" s="25">
         <v>3556156</v>
       </c>
-      <c r="AT7" s="26">
+      <c r="AT7" s="25">
         <v>3495018</v>
       </c>
-      <c r="AU7" s="26">
+      <c r="AU7" s="25">
         <v>3513266</v>
       </c>
-      <c r="AV7" s="26">
+      <c r="AV7" s="25">
         <v>3550695</v>
       </c>
-      <c r="AW7" s="26">
+      <c r="AW7" s="25">
         <v>3571709</v>
       </c>
-      <c r="AX7" s="26">
+      <c r="AX7" s="25">
         <v>3640721</v>
       </c>
-      <c r="AY7" s="26">
+      <c r="AY7" s="25">
         <v>3611268</v>
       </c>
-      <c r="AZ7" s="26">
+      <c r="AZ7" s="25">
         <v>3665360</v>
       </c>
-      <c r="BA7" s="26">
+      <c r="BA7" s="25">
         <v>3647376</v>
       </c>
-      <c r="BB7" s="26">
+      <c r="BB7" s="25">
         <v>3647778</v>
       </c>
-      <c r="BC7" s="26">
+      <c r="BC7" s="25">
         <v>3646192</v>
       </c>
-      <c r="BD7" s="26">
+      <c r="BD7" s="25">
         <v>3678349</v>
       </c>
-      <c r="BE7" s="26">
+      <c r="BE7" s="25">
         <v>3700487</v>
       </c>
-      <c r="BF7" s="26">
+      <c r="BF7" s="25">
         <v>3757440</v>
       </c>
-      <c r="BG7" s="27">
+      <c r="BG7" s="26">
         <v>3734233</v>
       </c>
-      <c r="BH7" s="27">
+      <c r="BH7" s="26">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="28">
+      <c r="BI7" s="27">
         <v>3772715</v>
       </c>
       <c r="BJ7" s="14">
@@ -2115,7 +2120,9 @@
       <c r="BS7" s="14">
         <v>4023627</v>
       </c>
-      <c r="BT7" s="23"/>
+      <c r="BT7" s="14">
+        <v>4066247</v>
+      </c>
     </row>
     <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2292,13 +2299,13 @@
       <c r="BF8" s="6">
         <v>307985</v>
       </c>
-      <c r="BG8" s="33">
+      <c r="BG8" s="32">
         <v>304185</v>
       </c>
-      <c r="BH8" s="33">
+      <c r="BH8" s="32">
         <v>325046</v>
       </c>
-      <c r="BI8" s="34">
+      <c r="BI8" s="33">
         <v>318674</v>
       </c>
       <c r="BJ8" s="16">
@@ -2331,220 +2338,226 @@
       <c r="BS8" s="16">
         <v>426362</v>
       </c>
+      <c r="BT8" s="16">
+        <v>439376</v>
+      </c>
     </row>
     <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>279698</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>275845</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>346941</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>318086</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>280900</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>284799</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>295370</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>249436</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>256130</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>260260</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="29">
         <v>295903</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="29">
         <v>293972</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="29">
         <v>272591</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="29">
         <v>273980</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="29">
         <v>302487</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="29">
         <v>262629</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="29">
         <v>237366</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="29">
         <v>270905</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="29">
         <v>315880</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="29">
         <v>332431</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="29">
         <v>288845</v>
       </c>
-      <c r="W9" s="30">
+      <c r="W9" s="29">
         <v>301355</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="29">
         <v>345784</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="Y9" s="29">
         <v>342825</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="Z9" s="29">
         <v>295702</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="29">
         <v>290848</v>
       </c>
-      <c r="AB9" s="30">
+      <c r="AB9" s="29">
         <v>346516</v>
       </c>
-      <c r="AC9" s="30">
+      <c r="AC9" s="29">
         <v>304107</v>
       </c>
-      <c r="AD9" s="30">
+      <c r="AD9" s="29">
         <v>298581</v>
       </c>
-      <c r="AE9" s="30">
+      <c r="AE9" s="29">
         <v>290960</v>
       </c>
-      <c r="AF9" s="30">
+      <c r="AF9" s="29">
         <v>331758</v>
       </c>
-      <c r="AG9" s="30">
+      <c r="AG9" s="29">
         <v>308986</v>
       </c>
-      <c r="AH9" s="30">
+      <c r="AH9" s="29">
         <v>323032</v>
       </c>
-      <c r="AI9" s="30">
+      <c r="AI9" s="29">
         <v>293590</v>
       </c>
-      <c r="AJ9" s="30">
+      <c r="AJ9" s="29">
         <v>319887</v>
       </c>
-      <c r="AK9" s="30">
+      <c r="AK9" s="29">
         <v>314482</v>
       </c>
-      <c r="AL9" s="30">
+      <c r="AL9" s="29">
         <v>305287</v>
       </c>
-      <c r="AM9" s="30">
+      <c r="AM9" s="29">
         <v>314600</v>
       </c>
-      <c r="AN9" s="30">
+      <c r="AN9" s="29">
         <v>358453</v>
       </c>
-      <c r="AO9" s="30">
+      <c r="AO9" s="29">
         <v>314441</v>
       </c>
-      <c r="AP9" s="30">
+      <c r="AP9" s="29">
         <v>321415</v>
       </c>
-      <c r="AQ9" s="30">
+      <c r="AQ9" s="29">
         <v>317985</v>
       </c>
-      <c r="AR9" s="30">
+      <c r="AR9" s="29">
         <v>323572</v>
       </c>
-      <c r="AS9" s="30">
+      <c r="AS9" s="29">
         <v>324981</v>
       </c>
-      <c r="AT9" s="30">
+      <c r="AT9" s="29">
         <v>320330</v>
       </c>
-      <c r="AU9" s="30">
+      <c r="AU9" s="29">
         <v>309464</v>
       </c>
-      <c r="AV9" s="30">
+      <c r="AV9" s="29">
         <v>334636</v>
       </c>
-      <c r="AW9" s="30">
+      <c r="AW9" s="29">
         <v>304996</v>
       </c>
-      <c r="AX9" s="30">
+      <c r="AX9" s="29">
         <v>303187</v>
       </c>
-      <c r="AY9" s="30">
+      <c r="AY9" s="29">
         <v>313301</v>
       </c>
-      <c r="AZ9" s="30">
+      <c r="AZ9" s="29">
         <v>366668</v>
       </c>
-      <c r="BA9" s="30">
+      <c r="BA9" s="29">
         <v>346696</v>
       </c>
-      <c r="BB9" s="30">
+      <c r="BB9" s="29">
         <v>316579</v>
       </c>
-      <c r="BC9" s="30">
+      <c r="BC9" s="29">
         <v>300670</v>
       </c>
-      <c r="BD9" s="30">
+      <c r="BD9" s="29">
         <v>330652</v>
       </c>
-      <c r="BE9" s="30">
+      <c r="BE9" s="29">
         <v>309252</v>
       </c>
-      <c r="BF9" s="30">
+      <c r="BF9" s="29">
         <v>307985</v>
       </c>
-      <c r="BG9" s="31">
+      <c r="BG9" s="30">
         <v>304185</v>
       </c>
-      <c r="BH9" s="31">
+      <c r="BH9" s="30">
         <v>325046</v>
       </c>
-      <c r="BI9" s="32">
+      <c r="BI9" s="31">
         <v>318674</v>
       </c>
-      <c r="BJ9" s="24">
+      <c r="BJ9" s="23">
         <v>275974</v>
       </c>
-      <c r="BK9" s="24">
+      <c r="BK9" s="23">
         <v>285948</v>
       </c>
-      <c r="BL9" s="24">
+      <c r="BL9" s="23">
         <v>298834</v>
       </c>
-      <c r="BM9" s="24">
+      <c r="BM9" s="23">
         <v>306010</v>
       </c>
-      <c r="BN9" s="24">
+      <c r="BN9" s="23">
         <v>329779</v>
       </c>
-      <c r="BO9" s="24">
+      <c r="BO9" s="23">
         <v>352134</v>
       </c>
-      <c r="BP9" s="24">
+      <c r="BP9" s="23">
         <v>371577</v>
       </c>
-      <c r="BQ9" s="24">
+      <c r="BQ9" s="23">
         <v>376300</v>
       </c>
-      <c r="BR9" s="24">
+      <c r="BR9" s="23">
         <v>408364</v>
       </c>
-      <c r="BS9" s="24">
+      <c r="BS9" s="23">
         <v>426362</v>
+      </c>
+      <c r="BT9" s="23">
+        <v>439376</v>
       </c>
     </row>
     <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2761,6 +2774,9 @@
       <c r="BS10" s="16">
         <v>1101183</v>
       </c>
+      <c r="BT10" s="16">
+        <v>1104777</v>
+      </c>
     </row>
     <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -2976,6 +2992,9 @@
       <c r="BS11" s="15">
         <v>9948</v>
       </c>
+      <c r="BT11" s="15">
+        <v>14190</v>
+      </c>
     </row>
     <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -3191,6 +3210,9 @@
       <c r="BS12" s="15">
         <v>776607</v>
       </c>
+      <c r="BT12" s="15">
+        <v>776483</v>
+      </c>
     </row>
     <row r="13" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -3406,6 +3428,9 @@
       <c r="BS13" s="15">
         <v>314628</v>
       </c>
+      <c r="BT13" s="15">
+        <v>314104</v>
+      </c>
     </row>
     <row r="14" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3621,6 +3646,9 @@
       <c r="BS14" s="16">
         <v>2472566</v>
       </c>
+      <c r="BT14" s="16">
+        <v>2503739</v>
+      </c>
     </row>
     <row r="15" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3836,6 +3864,9 @@
       <c r="BS15" s="15">
         <v>838455</v>
       </c>
+      <c r="BT15" s="15">
+        <v>837673</v>
+      </c>
     </row>
     <row r="16" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -4051,8 +4082,11 @@
       <c r="BS16" s="15">
         <v>334390</v>
       </c>
+      <c r="BT16" s="15">
+        <v>354412</v>
+      </c>
     </row>
-    <row r="17" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -4266,8 +4300,11 @@
       <c r="BS17" s="15">
         <v>166018</v>
       </c>
+      <c r="BT17" s="15">
+        <v>158092</v>
+      </c>
     </row>
-    <row r="18" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4481,8 +4518,11 @@
       <c r="BS18" s="17">
         <v>331121</v>
       </c>
+      <c r="BT18" s="17">
+        <v>334065</v>
+      </c>
     </row>
-    <row r="19" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4696,8 +4736,11 @@
       <c r="BS19" s="17">
         <v>276786</v>
       </c>
+      <c r="BT19" s="17">
+        <v>306335</v>
+      </c>
     </row>
-    <row r="20" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4911,8 +4954,11 @@
       <c r="BS20" s="17">
         <v>396057</v>
       </c>
+      <c r="BT20" s="17">
+        <v>395040</v>
+      </c>
     </row>
-    <row r="21" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -5126,8 +5172,11 @@
       <c r="BS21" s="17">
         <v>129739</v>
       </c>
+      <c r="BT21" s="17">
+        <v>118122</v>
+      </c>
     </row>
-    <row r="22" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -5341,8 +5390,11 @@
       <c r="BS22" s="18">
         <v>23516</v>
       </c>
+      <c r="BT22" s="18">
+        <v>18355</v>
+      </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>24</v>
       </c>
@@ -5409,24 +5461,19 @@
       <c r="BJ23" s="38"/>
       <c r="BK23" s="38"/>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BQ4:BS4"/>
+    <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A23:BK23"/>
     <mergeCell ref="A3:BF3"/>
@@ -5442,6 +5489,11 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955C89B-0681-4F5C-9465-F5DFC138EB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pob ocupada sector" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -119,13 +120,13 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - IV trimestre de 2022</t>
+    <t>I trimestre 2005 - I trimestre de 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -746,17 +747,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -791,6 +781,30 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -838,14 +852,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -858,7 +870,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -882,16 +894,15 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -901,10 +912,10 @@
     <xf numFmtId="3" fontId="16" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,10 +930,10 @@
     <xf numFmtId="3" fontId="0" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,15 +948,35 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1080,6 +1111,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1115,6 +1163,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1290,4189 +1355,4249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BU25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT28" sqref="BT28"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BZ16" sqref="BZ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.625" style="2" customWidth="1"/>
-    <col min="62" max="62" width="16.75" style="2" customWidth="1"/>
-    <col min="63" max="63" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.75" style="2" customWidth="1"/>
-    <col min="65" max="65" width="16.375" style="2" customWidth="1"/>
-    <col min="66" max="66" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.875" style="2" customWidth="1"/>
-    <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="11.375" style="2"/>
+    <col min="1" max="1" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.6640625" customWidth="1"/>
+    <col min="62" max="62" width="16.77734375" customWidth="1"/>
+    <col min="63" max="63" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.77734375" customWidth="1"/>
+    <col min="65" max="65" width="16.33203125" customWidth="1"/>
+    <col min="66" max="66" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.88671875" customWidth="1"/>
+    <col min="70" max="70" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="39"/>
-      <c r="BF3" s="39"/>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
     </row>
-    <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="34">
         <v>2005</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37">
         <v>2006</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37">
         <v>2007</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34">
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37">
         <v>2008</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34">
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37">
         <v>2009</v>
       </c>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34">
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37">
         <v>2010</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34">
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37">
         <v>2011</v>
       </c>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34">
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37">
         <v>2012</v>
       </c>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34">
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37">
         <v>2013</v>
       </c>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34">
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37">
         <v>2014</v>
       </c>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34">
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34">
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37">
         <v>2016</v>
       </c>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34">
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37">
         <v>2017</v>
       </c>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34">
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37">
         <v>2018</v>
       </c>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34">
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37">
         <v>2019</v>
       </c>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34">
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37">
         <v>2020</v>
       </c>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="35">
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="32">
         <v>2021</v>
       </c>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="35">
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="32">
         <v>2022</v>
       </c>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="37"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="31">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AS5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AT5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AV5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AW5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="3" t="s">
+      <c r="AX5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AY5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BA5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BB5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BC5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BD5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BE5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BF5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BG5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BH5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BI5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BJ5" s="3" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BK5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BL5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BM5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BN5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BO5" s="20" t="s">
+      <c r="BO5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BP5" s="20" t="s">
+      <c r="BP5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BQ5" s="20" t="s">
+      <c r="BQ5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BR5" s="20" t="s">
+      <c r="BR5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BS5" s="20" t="s">
+      <c r="BS5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BT5" s="20" t="s">
+      <c r="BT5" s="18" t="s">
         <v>4</v>
       </c>
+      <c r="BU5" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="22"/>
-      <c r="BL6" s="22"/>
-      <c r="BM6" s="22"/>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="22"/>
-      <c r="BR6" s="22"/>
-      <c r="BS6" s="22"/>
-      <c r="BT6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="19"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="45"/>
     </row>
-    <row r="7" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="40">
         <v>2844479</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>2825724</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>2894746</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>2893276</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>2879000</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>2891859</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>2892970</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <v>2916734</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="22">
         <v>2923283</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>2995783</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>3047913</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="22">
         <v>3089794</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <v>3066133</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="22">
         <v>3141486</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="22">
         <v>3081134</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="22">
         <v>3037337</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="22">
         <v>3016962</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="22">
         <v>3038366</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="22">
         <v>3104885</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="22">
         <v>3198326</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="22">
         <v>3125868</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7" s="22">
         <v>3171385</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7" s="22">
         <v>3209427</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Y7" s="22">
         <v>3201925</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7" s="22">
         <v>3203724</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AA7" s="22">
         <v>3200368</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AB7" s="22">
         <v>3280531</v>
       </c>
-      <c r="AC7" s="25">
+      <c r="AC7" s="22">
         <v>3285628</v>
       </c>
-      <c r="AD7" s="25">
+      <c r="AD7" s="22">
         <v>3286857</v>
       </c>
-      <c r="AE7" s="25">
+      <c r="AE7" s="22">
         <v>3328415</v>
       </c>
-      <c r="AF7" s="25">
+      <c r="AF7" s="22">
         <v>3336397</v>
       </c>
-      <c r="AG7" s="25">
+      <c r="AG7" s="22">
         <v>3268992</v>
       </c>
-      <c r="AH7" s="25">
+      <c r="AH7" s="22">
         <v>3313107</v>
       </c>
-      <c r="AI7" s="25">
+      <c r="AI7" s="22">
         <v>3365048</v>
       </c>
-      <c r="AJ7" s="25">
+      <c r="AJ7" s="22">
         <v>3330846</v>
       </c>
-      <c r="AK7" s="25">
+      <c r="AK7" s="22">
         <v>3347377</v>
       </c>
-      <c r="AL7" s="25">
+      <c r="AL7" s="22">
         <v>3293553</v>
       </c>
-      <c r="AM7" s="25">
+      <c r="AM7" s="22">
         <v>3282880</v>
       </c>
-      <c r="AN7" s="25">
+      <c r="AN7" s="22">
         <v>3322345</v>
       </c>
-      <c r="AO7" s="25">
+      <c r="AO7" s="22">
         <v>3345254</v>
       </c>
-      <c r="AP7" s="25">
+      <c r="AP7" s="22">
         <v>3395608</v>
       </c>
-      <c r="AQ7" s="25">
+      <c r="AQ7" s="22">
         <v>3355065</v>
       </c>
-      <c r="AR7" s="25">
+      <c r="AR7" s="22">
         <v>3392294</v>
       </c>
-      <c r="AS7" s="25">
+      <c r="AS7" s="22">
         <v>3556156</v>
       </c>
-      <c r="AT7" s="25">
+      <c r="AT7" s="22">
         <v>3495018</v>
       </c>
-      <c r="AU7" s="25">
+      <c r="AU7" s="22">
         <v>3513266</v>
       </c>
-      <c r="AV7" s="25">
+      <c r="AV7" s="22">
         <v>3550695</v>
       </c>
-      <c r="AW7" s="25">
+      <c r="AW7" s="22">
         <v>3571709</v>
       </c>
-      <c r="AX7" s="25">
+      <c r="AX7" s="22">
         <v>3640721</v>
       </c>
-      <c r="AY7" s="25">
+      <c r="AY7" s="22">
         <v>3611268</v>
       </c>
-      <c r="AZ7" s="25">
+      <c r="AZ7" s="22">
         <v>3665360</v>
       </c>
-      <c r="BA7" s="25">
+      <c r="BA7" s="22">
         <v>3647376</v>
       </c>
-      <c r="BB7" s="25">
+      <c r="BB7" s="22">
         <v>3647778</v>
       </c>
-      <c r="BC7" s="25">
+      <c r="BC7" s="22">
         <v>3646192</v>
       </c>
-      <c r="BD7" s="25">
+      <c r="BD7" s="22">
         <v>3678349</v>
       </c>
-      <c r="BE7" s="25">
+      <c r="BE7" s="22">
         <v>3700487</v>
       </c>
-      <c r="BF7" s="25">
+      <c r="BF7" s="22">
         <v>3757440</v>
       </c>
-      <c r="BG7" s="26">
+      <c r="BG7" s="23">
         <v>3734233</v>
       </c>
-      <c r="BH7" s="26">
+      <c r="BH7" s="23">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="27">
+      <c r="BI7" s="24">
         <v>3772715</v>
       </c>
-      <c r="BJ7" s="14">
+      <c r="BJ7" s="12">
         <v>3778375</v>
       </c>
-      <c r="BK7" s="14">
+      <c r="BK7" s="12">
         <v>3576228</v>
       </c>
-      <c r="BL7" s="14">
+      <c r="BL7" s="12">
         <v>3654530</v>
       </c>
-      <c r="BM7" s="14">
+      <c r="BM7" s="12">
         <v>3735596</v>
       </c>
-      <c r="BN7" s="14">
+      <c r="BN7" s="12">
         <v>3824700</v>
       </c>
-      <c r="BO7" s="14">
+      <c r="BO7" s="12">
         <v>3825417</v>
       </c>
-      <c r="BP7" s="14">
+      <c r="BP7" s="12">
         <v>3924612</v>
       </c>
-      <c r="BQ7" s="14">
+      <c r="BQ7" s="12">
         <v>3943727</v>
       </c>
-      <c r="BR7" s="14">
+      <c r="BR7" s="12">
         <v>3973378</v>
       </c>
-      <c r="BS7" s="14">
+      <c r="BS7" s="12">
         <v>4023627</v>
       </c>
-      <c r="BT7" s="14">
+      <c r="BT7" s="12">
         <v>4066247</v>
       </c>
+      <c r="BU7" s="12">
+        <v>4107726</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="41">
         <v>279698</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>275845</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>346941</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>318086</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>280900</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>284799</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>295370</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>249436</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>256130</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>260260</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>295903</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>293972</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <v>272591</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>273980</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <v>302487</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <v>262629</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <v>237366</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="4">
         <v>270905</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="4">
         <v>315880</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="4">
         <v>332431</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="4">
         <v>288845</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="4">
         <v>301355</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="4">
         <v>345784</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="4">
         <v>342825</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="4">
         <v>295702</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="4">
         <v>290848</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="4">
         <v>346516</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="4">
         <v>304107</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="4">
         <v>298581</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="4">
         <v>290960</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="4">
         <v>331758</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="4">
         <v>308986</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8" s="4">
         <v>323032</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="4">
         <v>293590</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="4">
         <v>319887</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AK8" s="4">
         <v>314482</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AL8" s="4">
         <v>305287</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AM8" s="4">
         <v>314600</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AN8" s="4">
         <v>358453</v>
       </c>
-      <c r="AO8" s="6">
+      <c r="AO8" s="4">
         <v>314441</v>
       </c>
-      <c r="AP8" s="6">
+      <c r="AP8" s="4">
         <v>321415</v>
       </c>
-      <c r="AQ8" s="6">
+      <c r="AQ8" s="4">
         <v>317985</v>
       </c>
-      <c r="AR8" s="6">
+      <c r="AR8" s="4">
         <v>323572</v>
       </c>
-      <c r="AS8" s="6">
+      <c r="AS8" s="4">
         <v>324981</v>
       </c>
-      <c r="AT8" s="6">
+      <c r="AT8" s="4">
         <v>320330</v>
       </c>
-      <c r="AU8" s="6">
+      <c r="AU8" s="4">
         <v>309464</v>
       </c>
-      <c r="AV8" s="6">
+      <c r="AV8" s="4">
         <v>334636</v>
       </c>
-      <c r="AW8" s="6">
+      <c r="AW8" s="4">
         <v>304996</v>
       </c>
-      <c r="AX8" s="6">
+      <c r="AX8" s="4">
         <v>303187</v>
       </c>
-      <c r="AY8" s="6">
+      <c r="AY8" s="4">
         <v>313301</v>
       </c>
-      <c r="AZ8" s="6">
+      <c r="AZ8" s="4">
         <v>366668</v>
       </c>
-      <c r="BA8" s="6">
+      <c r="BA8" s="4">
         <v>346696</v>
       </c>
-      <c r="BB8" s="6">
+      <c r="BB8" s="4">
         <v>316579</v>
       </c>
-      <c r="BC8" s="6">
+      <c r="BC8" s="4">
         <v>300670</v>
       </c>
-      <c r="BD8" s="6">
+      <c r="BD8" s="4">
         <v>330652</v>
       </c>
-      <c r="BE8" s="6">
+      <c r="BE8" s="4">
         <v>309252</v>
       </c>
-      <c r="BF8" s="6">
+      <c r="BF8" s="4">
         <v>307985</v>
       </c>
-      <c r="BG8" s="32">
+      <c r="BG8" s="29">
         <v>304185</v>
       </c>
-      <c r="BH8" s="32">
+      <c r="BH8" s="29">
         <v>325046</v>
       </c>
-      <c r="BI8" s="33">
+      <c r="BI8" s="30">
         <v>318674</v>
       </c>
-      <c r="BJ8" s="16">
+      <c r="BJ8" s="14">
         <v>275974</v>
       </c>
-      <c r="BK8" s="16">
+      <c r="BK8" s="14">
         <v>285948</v>
       </c>
-      <c r="BL8" s="16">
+      <c r="BL8" s="14">
         <v>298834</v>
       </c>
-      <c r="BM8" s="16">
+      <c r="BM8" s="14">
         <v>306010</v>
       </c>
-      <c r="BN8" s="16">
+      <c r="BN8" s="14">
         <v>329779</v>
       </c>
-      <c r="BO8" s="16">
+      <c r="BO8" s="14">
         <v>352134</v>
       </c>
-      <c r="BP8" s="16">
+      <c r="BP8" s="14">
         <v>371577</v>
       </c>
-      <c r="BQ8" s="16">
+      <c r="BQ8" s="14">
         <v>376300</v>
       </c>
-      <c r="BR8" s="16">
+      <c r="BR8" s="14">
         <v>408364</v>
       </c>
-      <c r="BS8" s="16">
+      <c r="BS8" s="14">
         <v>426362</v>
       </c>
-      <c r="BT8" s="16">
+      <c r="BT8" s="14">
         <v>439376</v>
       </c>
+      <c r="BU8" s="14">
+        <v>410507</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="42">
         <v>279698</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>275845</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="26">
         <v>346941</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <v>318086</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="26">
         <v>280900</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="26">
         <v>284799</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="26">
         <v>295370</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="26">
         <v>249436</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="26">
         <v>256130</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="26">
         <v>260260</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="26">
         <v>295903</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="26">
         <v>293972</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="26">
         <v>272591</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="26">
         <v>273980</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="26">
         <v>302487</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="26">
         <v>262629</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="26">
         <v>237366</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="26">
         <v>270905</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="26">
         <v>315880</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="26">
         <v>332431</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="26">
         <v>288845</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="26">
         <v>301355</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="26">
         <v>345784</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="26">
         <v>342825</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="26">
         <v>295702</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="26">
         <v>290848</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="26">
         <v>346516</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="26">
         <v>304107</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="26">
         <v>298581</v>
       </c>
-      <c r="AE9" s="29">
+      <c r="AE9" s="26">
         <v>290960</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="26">
         <v>331758</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AG9" s="26">
         <v>308986</v>
       </c>
-      <c r="AH9" s="29">
+      <c r="AH9" s="26">
         <v>323032</v>
       </c>
-      <c r="AI9" s="29">
+      <c r="AI9" s="26">
         <v>293590</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AJ9" s="26">
         <v>319887</v>
       </c>
-      <c r="AK9" s="29">
+      <c r="AK9" s="26">
         <v>314482</v>
       </c>
-      <c r="AL9" s="29">
+      <c r="AL9" s="26">
         <v>305287</v>
       </c>
-      <c r="AM9" s="29">
+      <c r="AM9" s="26">
         <v>314600</v>
       </c>
-      <c r="AN9" s="29">
+      <c r="AN9" s="26">
         <v>358453</v>
       </c>
-      <c r="AO9" s="29">
+      <c r="AO9" s="26">
         <v>314441</v>
       </c>
-      <c r="AP9" s="29">
+      <c r="AP9" s="26">
         <v>321415</v>
       </c>
-      <c r="AQ9" s="29">
+      <c r="AQ9" s="26">
         <v>317985</v>
       </c>
-      <c r="AR9" s="29">
+      <c r="AR9" s="26">
         <v>323572</v>
       </c>
-      <c r="AS9" s="29">
+      <c r="AS9" s="26">
         <v>324981</v>
       </c>
-      <c r="AT9" s="29">
+      <c r="AT9" s="26">
         <v>320330</v>
       </c>
-      <c r="AU9" s="29">
+      <c r="AU9" s="26">
         <v>309464</v>
       </c>
-      <c r="AV9" s="29">
+      <c r="AV9" s="26">
         <v>334636</v>
       </c>
-      <c r="AW9" s="29">
+      <c r="AW9" s="26">
         <v>304996</v>
       </c>
-      <c r="AX9" s="29">
+      <c r="AX9" s="26">
         <v>303187</v>
       </c>
-      <c r="AY9" s="29">
+      <c r="AY9" s="26">
         <v>313301</v>
       </c>
-      <c r="AZ9" s="29">
+      <c r="AZ9" s="26">
         <v>366668</v>
       </c>
-      <c r="BA9" s="29">
+      <c r="BA9" s="26">
         <v>346696</v>
       </c>
-      <c r="BB9" s="29">
+      <c r="BB9" s="26">
         <v>316579</v>
       </c>
-      <c r="BC9" s="29">
+      <c r="BC9" s="26">
         <v>300670</v>
       </c>
-      <c r="BD9" s="29">
+      <c r="BD9" s="26">
         <v>330652</v>
       </c>
-      <c r="BE9" s="29">
+      <c r="BE9" s="26">
         <v>309252</v>
       </c>
-      <c r="BF9" s="29">
+      <c r="BF9" s="26">
         <v>307985</v>
       </c>
-      <c r="BG9" s="30">
+      <c r="BG9" s="27">
         <v>304185</v>
       </c>
-      <c r="BH9" s="30">
+      <c r="BH9" s="27">
         <v>325046</v>
       </c>
-      <c r="BI9" s="31">
+      <c r="BI9" s="28">
         <v>318674</v>
       </c>
-      <c r="BJ9" s="23">
+      <c r="BJ9" s="20">
         <v>275974</v>
       </c>
-      <c r="BK9" s="23">
+      <c r="BK9" s="20">
         <v>285948</v>
       </c>
-      <c r="BL9" s="23">
+      <c r="BL9" s="20">
         <v>298834</v>
       </c>
-      <c r="BM9" s="23">
+      <c r="BM9" s="20">
         <v>306010</v>
       </c>
-      <c r="BN9" s="23">
+      <c r="BN9" s="20">
         <v>329779</v>
       </c>
-      <c r="BO9" s="23">
+      <c r="BO9" s="20">
         <v>352134</v>
       </c>
-      <c r="BP9" s="23">
+      <c r="BP9" s="20">
         <v>371577</v>
       </c>
-      <c r="BQ9" s="23">
+      <c r="BQ9" s="20">
         <v>376300</v>
       </c>
-      <c r="BR9" s="23">
+      <c r="BR9" s="20">
         <v>408364</v>
       </c>
-      <c r="BS9" s="23">
+      <c r="BS9" s="20">
         <v>426362</v>
       </c>
-      <c r="BT9" s="23">
+      <c r="BT9" s="20">
         <v>439376</v>
       </c>
+      <c r="BU9" s="20">
+        <v>410507</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="41">
         <v>812917</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>788631</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>811444</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>840033</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>830282</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>866078</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>898951</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>906291</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>890847</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>862960</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>864815</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>842819</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="4">
         <v>824735</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="4">
         <v>922283</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="4">
         <v>881161</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="4">
         <v>857667</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
         <v>846822</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="4">
         <v>854192</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="4">
         <v>799679</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="4">
         <v>823334</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="4">
         <v>841468</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="4">
         <v>805901</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="4">
         <v>823121</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="4">
         <v>810854</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="4">
         <v>817717</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="4">
         <v>833990</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="4">
         <v>810114</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="4">
         <v>842849</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="4">
         <v>862836</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="4">
         <v>884477</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="4">
         <v>868352</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="4">
         <v>832437</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10" s="4">
         <v>800404</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="4">
         <v>881129</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="4">
         <v>873689</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="4">
         <v>859259</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="4">
         <v>862884</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AM10" s="4">
         <v>863278</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AN10" s="4">
         <v>834628</v>
       </c>
-      <c r="AO10" s="6">
+      <c r="AO10" s="4">
         <v>849551</v>
       </c>
-      <c r="AP10" s="6">
+      <c r="AP10" s="4">
         <v>894060</v>
       </c>
-      <c r="AQ10" s="6">
+      <c r="AQ10" s="4">
         <v>918033</v>
       </c>
-      <c r="AR10" s="6">
+      <c r="AR10" s="4">
         <v>948736</v>
       </c>
-      <c r="AS10" s="6">
+      <c r="AS10" s="4">
         <v>1006750</v>
       </c>
-      <c r="AT10" s="6">
+      <c r="AT10" s="4">
         <v>958495</v>
       </c>
-      <c r="AU10" s="6">
+      <c r="AU10" s="4">
         <v>972255</v>
       </c>
-      <c r="AV10" s="6">
+      <c r="AV10" s="4">
         <v>920429</v>
       </c>
-      <c r="AW10" s="6">
+      <c r="AW10" s="4">
         <v>964707</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AX10" s="4">
         <v>971871</v>
       </c>
-      <c r="AY10" s="6">
+      <c r="AY10" s="4">
         <v>963244</v>
       </c>
-      <c r="AZ10" s="6">
+      <c r="AZ10" s="4">
         <v>986351</v>
       </c>
-      <c r="BA10" s="6">
+      <c r="BA10" s="4">
         <v>987538</v>
       </c>
-      <c r="BB10" s="6">
+      <c r="BB10" s="4">
         <v>1007686</v>
       </c>
-      <c r="BC10" s="6">
+      <c r="BC10" s="4">
         <v>983513</v>
       </c>
-      <c r="BD10" s="6">
+      <c r="BD10" s="4">
         <v>995157</v>
       </c>
-      <c r="BE10" s="6">
+      <c r="BE10" s="4">
         <v>989411</v>
       </c>
-      <c r="BF10" s="6">
+      <c r="BF10" s="4">
         <v>1016600</v>
       </c>
-      <c r="BG10" s="11">
+      <c r="BG10" s="9">
         <v>1020826</v>
       </c>
-      <c r="BH10" s="11">
+      <c r="BH10" s="9">
         <v>997801</v>
       </c>
-      <c r="BI10" s="12">
+      <c r="BI10" s="10">
         <v>1021982</v>
       </c>
-      <c r="BJ10" s="16">
+      <c r="BJ10" s="14">
         <v>1022081</v>
       </c>
-      <c r="BK10" s="16">
+      <c r="BK10" s="14">
         <v>1008404</v>
       </c>
-      <c r="BL10" s="16">
+      <c r="BL10" s="14">
         <v>967684</v>
       </c>
-      <c r="BM10" s="16">
+      <c r="BM10" s="14">
         <v>1028196</v>
       </c>
-      <c r="BN10" s="16">
+      <c r="BN10" s="14">
         <v>1001614</v>
       </c>
-      <c r="BO10" s="16">
+      <c r="BO10" s="14">
         <v>993276</v>
       </c>
-      <c r="BP10" s="16">
+      <c r="BP10" s="14">
         <v>1018574</v>
       </c>
-      <c r="BQ10" s="16">
+      <c r="BQ10" s="14">
         <v>1030887</v>
       </c>
-      <c r="BR10" s="16">
+      <c r="BR10" s="14">
         <v>1084916</v>
       </c>
-      <c r="BS10" s="16">
+      <c r="BS10" s="14">
         <v>1101183</v>
       </c>
-      <c r="BT10" s="16">
+      <c r="BT10" s="14">
         <v>1104777</v>
       </c>
+      <c r="BU10" s="14">
+        <v>1138003</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="43">
         <v>15445</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>7631</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>10008</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>7247</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>9595</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>7881</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>17128</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>12045</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>12219</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>12314</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>12764</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>8632</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="6">
         <v>6715</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>7409</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>14203</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>16600</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>17039</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="6">
         <v>21543</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="6">
         <v>22302</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="6">
         <v>13941</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="6">
         <v>11201</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="6">
         <v>16405</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="6">
         <v>13284</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="6">
         <v>8916</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="6">
         <v>12111</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="6">
         <v>9649</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="6">
         <v>8093</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="6">
         <v>7726</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AD11" s="6">
         <v>7670</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AE11" s="6">
         <v>10649</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="6">
         <v>16719</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="6">
         <v>10746</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="6">
         <v>14963</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="6">
         <v>16876</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AJ11" s="6">
         <v>15524</v>
       </c>
-      <c r="AK11" s="8">
+      <c r="AK11" s="6">
         <v>12845</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AL11" s="6">
         <v>13442</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AM11" s="6">
         <v>13392</v>
       </c>
-      <c r="AN11" s="8">
+      <c r="AN11" s="6">
         <v>12771</v>
       </c>
-      <c r="AO11" s="8">
+      <c r="AO11" s="6">
         <v>10883</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AP11" s="6">
         <v>9381</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AQ11" s="6">
         <v>13851</v>
       </c>
-      <c r="AR11" s="8">
+      <c r="AR11" s="6">
         <v>14090</v>
       </c>
-      <c r="AS11" s="8">
+      <c r="AS11" s="6">
         <v>10189</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AT11" s="6">
         <v>10096</v>
       </c>
-      <c r="AU11" s="8">
+      <c r="AU11" s="6">
         <v>12679</v>
       </c>
-      <c r="AV11" s="8">
+      <c r="AV11" s="6">
         <v>11362</v>
       </c>
-      <c r="AW11" s="8">
+      <c r="AW11" s="6">
         <v>10772</v>
       </c>
-      <c r="AX11" s="8">
+      <c r="AX11" s="6">
         <v>12848</v>
       </c>
-      <c r="AY11" s="8">
+      <c r="AY11" s="6">
         <v>12193</v>
       </c>
-      <c r="AZ11" s="8">
+      <c r="AZ11" s="6">
         <v>10095</v>
       </c>
-      <c r="BA11" s="8">
+      <c r="BA11" s="6">
         <v>9974</v>
       </c>
-      <c r="BB11" s="8">
+      <c r="BB11" s="6">
         <v>11923</v>
       </c>
-      <c r="BC11" s="8">
+      <c r="BC11" s="6">
         <v>16065</v>
       </c>
-      <c r="BD11" s="8">
+      <c r="BD11" s="6">
         <v>11763</v>
       </c>
-      <c r="BE11" s="8">
+      <c r="BE11" s="6">
         <v>11777</v>
       </c>
-      <c r="BF11" s="8">
+      <c r="BF11" s="6">
         <v>11210</v>
       </c>
-      <c r="BG11" s="10">
+      <c r="BG11" s="8">
         <v>12195</v>
       </c>
-      <c r="BH11" s="10">
+      <c r="BH11" s="8">
         <v>10592</v>
       </c>
-      <c r="BI11" s="13">
+      <c r="BI11" s="11">
         <v>14857</v>
       </c>
-      <c r="BJ11" s="15">
+      <c r="BJ11" s="13">
         <v>13833</v>
       </c>
-      <c r="BK11" s="15">
+      <c r="BK11" s="13">
         <v>12723</v>
       </c>
-      <c r="BL11" s="15">
+      <c r="BL11" s="13">
         <v>11697</v>
       </c>
-      <c r="BM11" s="15">
+      <c r="BM11" s="13">
         <v>8581</v>
       </c>
-      <c r="BN11" s="15">
+      <c r="BN11" s="13">
         <v>9609</v>
       </c>
-      <c r="BO11" s="15">
+      <c r="BO11" s="13">
         <v>11013</v>
       </c>
-      <c r="BP11" s="15">
+      <c r="BP11" s="13">
         <v>11505</v>
       </c>
-      <c r="BQ11" s="15">
+      <c r="BQ11" s="13">
         <v>4692</v>
       </c>
-      <c r="BR11" s="15">
+      <c r="BR11" s="13">
         <v>11000</v>
       </c>
-      <c r="BS11" s="15">
+      <c r="BS11" s="13">
         <v>9948</v>
       </c>
-      <c r="BT11" s="15">
+      <c r="BT11" s="13">
         <v>14190</v>
       </c>
+      <c r="BU11" s="13">
+        <v>12951</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="43">
         <v>559563</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>550739</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>581310</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>602206</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>592521</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>596227</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>624488</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>628237</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>616876</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>588984</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>595675</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>583970</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="6">
         <v>559280</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="6">
         <v>622649</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <v>605932</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <v>584952</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>588711</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="6">
         <v>574533</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="6">
         <v>550975</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <v>572089</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="6">
         <v>586380</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="6">
         <v>541801</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="6">
         <v>570786</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="6">
         <v>574555</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="6">
         <v>571340</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="6">
         <v>588292</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="6">
         <v>552186</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="6">
         <v>589832</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="6">
         <v>595317</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="6">
         <v>609931</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="6">
         <v>591601</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="6">
         <v>587770</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="6">
         <v>539215</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="6">
         <v>628104</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="6">
         <v>635791</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AK12" s="6">
         <v>624180</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AL12" s="6">
         <v>619786</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AM12" s="6">
         <v>604364</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AN12" s="6">
         <v>588670</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AO12" s="6">
         <v>608727</v>
       </c>
-      <c r="AP12" s="8">
+      <c r="AP12" s="6">
         <v>638128</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12" s="6">
         <v>629245</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="6">
         <v>666054</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AS12" s="6">
         <v>713923</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="6">
         <v>676679</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AU12" s="6">
         <v>669373</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AV12" s="6">
         <v>634991</v>
       </c>
-      <c r="AW12" s="8">
+      <c r="AW12" s="6">
         <v>657664</v>
       </c>
-      <c r="AX12" s="8">
+      <c r="AX12" s="6">
         <v>666590</v>
       </c>
-      <c r="AY12" s="8">
+      <c r="AY12" s="6">
         <v>647828</v>
       </c>
-      <c r="AZ12" s="8">
+      <c r="AZ12" s="6">
         <v>689357</v>
       </c>
-      <c r="BA12" s="8">
+      <c r="BA12" s="6">
         <v>691078</v>
       </c>
-      <c r="BB12" s="8">
+      <c r="BB12" s="6">
         <v>696443</v>
       </c>
-      <c r="BC12" s="8">
+      <c r="BC12" s="6">
         <v>651168</v>
       </c>
-      <c r="BD12" s="8">
+      <c r="BD12" s="6">
         <v>666818</v>
       </c>
-      <c r="BE12" s="8">
+      <c r="BE12" s="6">
         <v>662096</v>
       </c>
-      <c r="BF12" s="8">
+      <c r="BF12" s="6">
         <v>694291</v>
       </c>
-      <c r="BG12" s="10">
+      <c r="BG12" s="8">
         <v>687881</v>
       </c>
-      <c r="BH12" s="10">
+      <c r="BH12" s="8">
         <v>694328</v>
       </c>
-      <c r="BI12" s="13">
+      <c r="BI12" s="11">
         <v>697952</v>
       </c>
-      <c r="BJ12" s="15">
+      <c r="BJ12" s="13">
         <v>700917</v>
       </c>
-      <c r="BK12" s="15">
+      <c r="BK12" s="13">
         <v>678373</v>
       </c>
-      <c r="BL12" s="15">
+      <c r="BL12" s="13">
         <v>635309</v>
       </c>
-      <c r="BM12" s="15">
+      <c r="BM12" s="13">
         <v>680330</v>
       </c>
-      <c r="BN12" s="15">
+      <c r="BN12" s="13">
         <v>676852</v>
       </c>
-      <c r="BO12" s="15">
+      <c r="BO12" s="13">
         <v>691638</v>
       </c>
-      <c r="BP12" s="15">
+      <c r="BP12" s="13">
         <v>721939</v>
       </c>
-      <c r="BQ12" s="15">
+      <c r="BQ12" s="13">
         <v>727155</v>
       </c>
-      <c r="BR12" s="15">
+      <c r="BR12" s="13">
         <v>756185</v>
       </c>
-      <c r="BS12" s="15">
+      <c r="BS12" s="13">
         <v>776607</v>
       </c>
-      <c r="BT12" s="15">
+      <c r="BT12" s="13">
         <v>776483</v>
       </c>
+      <c r="BU12" s="13">
+        <v>785721</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="43">
         <v>237909</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>230261</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>220126</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>230580</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>228166</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>261970</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>257335</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>266009</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>261752</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>261662</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <v>256376</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>250217</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="6">
         <v>258740</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="6">
         <v>292225</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <v>261026</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="6">
         <v>256115</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="6">
         <v>241072</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="6">
         <v>258116</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="6">
         <v>226402</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="6">
         <v>237304</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="6">
         <v>243887</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="6">
         <v>247695</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="6">
         <v>239051</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="6">
         <v>227383</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="6">
         <v>234266</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="6">
         <v>236049</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="6">
         <v>249835</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC13" s="6">
         <v>245291</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AD13" s="6">
         <v>259849</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AE13" s="6">
         <v>263897</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AF13" s="6">
         <v>260032</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AG13" s="6">
         <v>233921</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AH13" s="6">
         <v>246226</v>
       </c>
-      <c r="AI13" s="8">
+      <c r="AI13" s="6">
         <v>236149</v>
       </c>
-      <c r="AJ13" s="8">
+      <c r="AJ13" s="6">
         <v>222374</v>
       </c>
-      <c r="AK13" s="8">
+      <c r="AK13" s="6">
         <v>222234</v>
       </c>
-      <c r="AL13" s="8">
+      <c r="AL13" s="6">
         <v>229656</v>
       </c>
-      <c r="AM13" s="8">
+      <c r="AM13" s="6">
         <v>245522</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="6">
         <v>233187</v>
       </c>
-      <c r="AO13" s="8">
+      <c r="AO13" s="6">
         <v>229941</v>
       </c>
-      <c r="AP13" s="8">
+      <c r="AP13" s="6">
         <v>246551</v>
       </c>
-      <c r="AQ13" s="8">
+      <c r="AQ13" s="6">
         <v>274937</v>
       </c>
-      <c r="AR13" s="8">
+      <c r="AR13" s="6">
         <v>268592</v>
       </c>
-      <c r="AS13" s="8">
+      <c r="AS13" s="6">
         <v>282638</v>
       </c>
-      <c r="AT13" s="8">
+      <c r="AT13" s="6">
         <v>271720</v>
       </c>
-      <c r="AU13" s="8">
+      <c r="AU13" s="6">
         <v>290203</v>
       </c>
-      <c r="AV13" s="8">
+      <c r="AV13" s="6">
         <v>274076</v>
       </c>
-      <c r="AW13" s="8">
+      <c r="AW13" s="6">
         <v>296271</v>
       </c>
-      <c r="AX13" s="8">
+      <c r="AX13" s="6">
         <v>292433</v>
       </c>
-      <c r="AY13" s="8">
+      <c r="AY13" s="6">
         <v>303223</v>
       </c>
-      <c r="AZ13" s="8">
+      <c r="AZ13" s="6">
         <v>286899</v>
       </c>
-      <c r="BA13" s="8">
+      <c r="BA13" s="6">
         <v>286486</v>
       </c>
-      <c r="BB13" s="8">
+      <c r="BB13" s="6">
         <v>299320</v>
       </c>
-      <c r="BC13" s="8">
+      <c r="BC13" s="6">
         <v>316280</v>
       </c>
-      <c r="BD13" s="8">
+      <c r="BD13" s="6">
         <v>316576</v>
       </c>
-      <c r="BE13" s="8">
+      <c r="BE13" s="6">
         <v>315538</v>
       </c>
-      <c r="BF13" s="8">
+      <c r="BF13" s="6">
         <v>311099</v>
       </c>
-      <c r="BG13" s="10">
+      <c r="BG13" s="8">
         <v>320750</v>
       </c>
-      <c r="BH13" s="10">
+      <c r="BH13" s="8">
         <v>292881</v>
       </c>
-      <c r="BI13" s="13">
+      <c r="BI13" s="11">
         <v>309173</v>
       </c>
-      <c r="BJ13" s="15">
+      <c r="BJ13" s="13">
         <v>307331</v>
       </c>
-      <c r="BK13" s="15">
+      <c r="BK13" s="13">
         <v>317308</v>
       </c>
-      <c r="BL13" s="15">
+      <c r="BL13" s="13">
         <v>320678</v>
       </c>
-      <c r="BM13" s="15">
+      <c r="BM13" s="13">
         <v>339285</v>
       </c>
-      <c r="BN13" s="15">
+      <c r="BN13" s="13">
         <v>315153</v>
       </c>
-      <c r="BO13" s="15">
+      <c r="BO13" s="13">
         <v>290625</v>
       </c>
-      <c r="BP13" s="15">
+      <c r="BP13" s="13">
         <v>285130</v>
       </c>
-      <c r="BQ13" s="15">
+      <c r="BQ13" s="13">
         <v>299040</v>
       </c>
-      <c r="BR13" s="15">
+      <c r="BR13" s="13">
         <v>317731</v>
       </c>
-      <c r="BS13" s="15">
+      <c r="BS13" s="13">
         <v>314628</v>
       </c>
-      <c r="BT13" s="15">
+      <c r="BT13" s="13">
         <v>314104</v>
       </c>
+      <c r="BU13" s="13">
+        <v>339331</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="41">
         <v>1742309</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>1754621</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>1711732</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>1724324</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>1754846</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>1728093</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>1679869</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>1750842</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>1760218</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>1860908</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>1873185</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>1932980</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="4">
         <v>1946949</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="4">
         <v>1919226</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="4">
         <v>1880575</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="4">
         <v>1897087</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="4">
         <v>1910902</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="4">
         <v>1887786</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="4">
         <v>1975657</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="4">
         <v>2035994</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="4">
         <v>1980443</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="4">
         <v>2051487</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="4">
         <v>2028601</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="4">
         <v>2035713</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="4">
         <v>2081810</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="4">
         <v>2060472</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="4">
         <v>2111791</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="4">
         <v>2124871</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="4">
         <v>2111682</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AE14" s="4">
         <v>2130758</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="4">
         <v>2120253</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="4">
         <v>2107642</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AH14" s="4">
         <v>2175994</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="4">
         <v>2179518</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="4">
         <v>2128020</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="4">
         <v>2156853</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AL14" s="4">
         <v>2110253</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="4">
         <v>2090646</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AN14" s="4">
         <v>2114922</v>
       </c>
-      <c r="AO14" s="6">
+      <c r="AO14" s="4">
         <v>2166581</v>
       </c>
-      <c r="AP14" s="6">
+      <c r="AP14" s="4">
         <v>2167774</v>
       </c>
-      <c r="AQ14" s="6">
+      <c r="AQ14" s="4">
         <v>2109134</v>
       </c>
-      <c r="AR14" s="6">
+      <c r="AR14" s="4">
         <v>2113815</v>
       </c>
-      <c r="AS14" s="6">
+      <c r="AS14" s="4">
         <v>2212964</v>
       </c>
-      <c r="AT14" s="6">
+      <c r="AT14" s="4">
         <v>2207511</v>
       </c>
-      <c r="AU14" s="6">
+      <c r="AU14" s="4">
         <v>2222796</v>
       </c>
-      <c r="AV14" s="6">
+      <c r="AV14" s="4">
         <v>2286618</v>
       </c>
-      <c r="AW14" s="6">
+      <c r="AW14" s="4">
         <v>2290579</v>
       </c>
-      <c r="AX14" s="6">
+      <c r="AX14" s="4">
         <v>2356206</v>
       </c>
-      <c r="AY14" s="6">
+      <c r="AY14" s="4">
         <v>2325476</v>
       </c>
-      <c r="AZ14" s="6">
+      <c r="AZ14" s="4">
         <v>2297489</v>
       </c>
-      <c r="BA14" s="6">
+      <c r="BA14" s="4">
         <v>2304552</v>
       </c>
-      <c r="BB14" s="6">
+      <c r="BB14" s="4">
         <v>2311700</v>
       </c>
-      <c r="BC14" s="6">
+      <c r="BC14" s="4">
         <v>2351456</v>
       </c>
-      <c r="BD14" s="6">
+      <c r="BD14" s="4">
         <v>2330155</v>
       </c>
-      <c r="BE14" s="6">
+      <c r="BE14" s="4">
         <v>2390783</v>
       </c>
-      <c r="BF14" s="6">
+      <c r="BF14" s="4">
         <v>2422155</v>
       </c>
-      <c r="BG14" s="11">
+      <c r="BG14" s="9">
         <v>2394130</v>
       </c>
-      <c r="BH14" s="11">
+      <c r="BH14" s="9">
         <v>2415333</v>
       </c>
-      <c r="BI14" s="12">
+      <c r="BI14" s="10">
         <v>2415328</v>
       </c>
-      <c r="BJ14" s="16">
+      <c r="BJ14" s="14">
         <v>2464057</v>
       </c>
-      <c r="BK14" s="16">
+      <c r="BK14" s="14">
         <v>2274291</v>
       </c>
-      <c r="BL14" s="16">
+      <c r="BL14" s="14">
         <v>2368937</v>
       </c>
-      <c r="BM14" s="16">
+      <c r="BM14" s="14">
         <v>2384707</v>
       </c>
-      <c r="BN14" s="16">
+      <c r="BN14" s="14">
         <v>2470360</v>
       </c>
-      <c r="BO14" s="16">
+      <c r="BO14" s="14">
         <v>2451405</v>
       </c>
-      <c r="BP14" s="16">
+      <c r="BP14" s="14">
         <v>2515601</v>
       </c>
-      <c r="BQ14" s="16">
+      <c r="BQ14" s="14">
         <v>2514363</v>
       </c>
-      <c r="BR14" s="16">
+      <c r="BR14" s="14">
         <v>2462719</v>
       </c>
-      <c r="BS14" s="16">
+      <c r="BS14" s="14">
         <v>2472566</v>
       </c>
-      <c r="BT14" s="16">
+      <c r="BT14" s="14">
         <v>2503739</v>
       </c>
+      <c r="BU14" s="14">
+        <v>2540402</v>
+      </c>
     </row>
-    <row r="15" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="43">
         <v>587376</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>612243</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>634428</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>627909</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>656784</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>614721</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>581560</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>601259</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>621458</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>669196</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>655361</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>675918</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="6">
         <v>682751</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="6">
         <v>668055</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="6">
         <v>673016</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="6">
         <v>657439</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="6">
         <v>667305</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="6">
         <v>673451</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="6">
         <v>672550</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="6">
         <v>746469</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="6">
         <v>714858</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="6">
         <v>701482</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="6">
         <v>727369</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="6">
         <v>712406</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="6">
         <v>732472</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="6">
         <v>736409</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="6">
         <v>767041</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="6">
         <v>764766</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AD15" s="6">
         <v>730172</v>
       </c>
-      <c r="AE15" s="8">
+      <c r="AE15" s="6">
         <v>713142</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AF15" s="6">
         <v>731416</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="6">
         <v>709559</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="6">
         <v>755380</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AI15" s="6">
         <v>715338</v>
       </c>
-      <c r="AJ15" s="8">
+      <c r="AJ15" s="6">
         <v>696085</v>
       </c>
-      <c r="AK15" s="8">
+      <c r="AK15" s="6">
         <v>747276</v>
       </c>
-      <c r="AL15" s="8">
+      <c r="AL15" s="6">
         <v>724346</v>
       </c>
-      <c r="AM15" s="8">
+      <c r="AM15" s="6">
         <v>706739</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="6">
         <v>732793</v>
       </c>
-      <c r="AO15" s="8">
+      <c r="AO15" s="6">
         <v>751686</v>
       </c>
-      <c r="AP15" s="8">
+      <c r="AP15" s="6">
         <v>716297</v>
       </c>
-      <c r="AQ15" s="8">
+      <c r="AQ15" s="6">
         <v>676519</v>
       </c>
-      <c r="AR15" s="8">
+      <c r="AR15" s="6">
         <v>696915</v>
       </c>
-      <c r="AS15" s="8">
+      <c r="AS15" s="6">
         <v>753220</v>
       </c>
-      <c r="AT15" s="8">
+      <c r="AT15" s="6">
         <v>712781</v>
       </c>
-      <c r="AU15" s="8">
+      <c r="AU15" s="6">
         <v>740243</v>
       </c>
-      <c r="AV15" s="8">
+      <c r="AV15" s="6">
         <v>769385</v>
       </c>
-      <c r="AW15" s="8">
+      <c r="AW15" s="6">
         <v>744980</v>
       </c>
-      <c r="AX15" s="8">
+      <c r="AX15" s="6">
         <v>766837</v>
       </c>
-      <c r="AY15" s="8">
+      <c r="AY15" s="6">
         <v>720484</v>
       </c>
-      <c r="AZ15" s="8">
+      <c r="AZ15" s="6">
         <v>730342</v>
       </c>
-      <c r="BA15" s="8">
+      <c r="BA15" s="6">
         <v>733638</v>
       </c>
-      <c r="BB15" s="8">
+      <c r="BB15" s="6">
         <v>694592</v>
       </c>
-      <c r="BC15" s="8">
+      <c r="BC15" s="6">
         <v>748347</v>
       </c>
-      <c r="BD15" s="8">
+      <c r="BD15" s="6">
         <v>715956</v>
       </c>
-      <c r="BE15" s="8">
+      <c r="BE15" s="6">
         <v>728950</v>
       </c>
-      <c r="BF15" s="8">
+      <c r="BF15" s="6">
         <v>799651</v>
       </c>
-      <c r="BG15" s="10">
+      <c r="BG15" s="8">
         <v>771067</v>
       </c>
-      <c r="BH15" s="10">
+      <c r="BH15" s="8">
         <v>824616</v>
       </c>
-      <c r="BI15" s="13">
+      <c r="BI15" s="11">
         <v>820815</v>
       </c>
-      <c r="BJ15" s="15">
+      <c r="BJ15" s="13">
         <v>800526</v>
       </c>
-      <c r="BK15" s="15">
+      <c r="BK15" s="13">
         <v>796652</v>
       </c>
-      <c r="BL15" s="15">
+      <c r="BL15" s="13">
         <v>840238</v>
       </c>
-      <c r="BM15" s="15">
+      <c r="BM15" s="13">
         <v>795201</v>
       </c>
-      <c r="BN15" s="15">
+      <c r="BN15" s="13">
         <v>828020</v>
       </c>
-      <c r="BO15" s="15">
+      <c r="BO15" s="13">
         <v>808309</v>
       </c>
-      <c r="BP15" s="15">
+      <c r="BP15" s="13">
         <v>857950</v>
       </c>
-      <c r="BQ15" s="15">
+      <c r="BQ15" s="13">
         <v>844493</v>
       </c>
-      <c r="BR15" s="15">
+      <c r="BR15" s="13">
         <v>821818</v>
       </c>
-      <c r="BS15" s="15">
+      <c r="BS15" s="13">
         <v>838455</v>
       </c>
-      <c r="BT15" s="15">
+      <c r="BT15" s="13">
         <v>837673</v>
       </c>
+      <c r="BU15" s="13">
+        <v>850925</v>
+      </c>
     </row>
-    <row r="16" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="43">
         <v>207794</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>198134</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>191517</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>184804</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>195242</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>181800</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>189079</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>188569</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <v>209284</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>219417</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>239872</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>232253</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="6">
         <v>243283</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="6">
         <v>225243</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="6">
         <v>225627</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="6">
         <v>240323</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="6">
         <v>246936</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="6">
         <v>229137</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="6">
         <v>255826</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="6">
         <v>253096</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="6">
         <v>243636</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="6">
         <v>240948</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="6">
         <v>239460</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="6">
         <v>248943</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="6">
         <v>268976</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="6">
         <v>268541</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="6">
         <v>276317</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AC16" s="6">
         <v>284323</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AD16" s="6">
         <v>274128</v>
       </c>
-      <c r="AE16" s="8">
+      <c r="AE16" s="6">
         <v>278419</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AF16" s="6">
         <v>266939</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AG16" s="6">
         <v>273670</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AH16" s="6">
         <v>286961</v>
       </c>
-      <c r="AI16" s="8">
+      <c r="AI16" s="6">
         <v>282617</v>
       </c>
-      <c r="AJ16" s="8">
+      <c r="AJ16" s="6">
         <v>269060</v>
       </c>
-      <c r="AK16" s="8">
+      <c r="AK16" s="6">
         <v>252151</v>
       </c>
-      <c r="AL16" s="8">
+      <c r="AL16" s="6">
         <v>253255</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AM16" s="6">
         <v>220883</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="6">
         <v>227801</v>
       </c>
-      <c r="AO16" s="8">
+      <c r="AO16" s="6">
         <v>244679</v>
       </c>
-      <c r="AP16" s="8">
+      <c r="AP16" s="6">
         <v>274167</v>
       </c>
-      <c r="AQ16" s="8">
+      <c r="AQ16" s="6">
         <v>269476</v>
       </c>
-      <c r="AR16" s="8">
+      <c r="AR16" s="6">
         <v>267833</v>
       </c>
-      <c r="AS16" s="8">
+      <c r="AS16" s="6">
         <v>284705</v>
       </c>
-      <c r="AT16" s="8">
+      <c r="AT16" s="6">
         <v>275535</v>
       </c>
-      <c r="AU16" s="8">
+      <c r="AU16" s="6">
         <v>302565</v>
       </c>
-      <c r="AV16" s="8">
+      <c r="AV16" s="6">
         <v>295601</v>
       </c>
-      <c r="AW16" s="8">
+      <c r="AW16" s="6">
         <v>319730</v>
       </c>
-      <c r="AX16" s="8">
+      <c r="AX16" s="6">
         <v>307491</v>
       </c>
-      <c r="AY16" s="8">
+      <c r="AY16" s="6">
         <v>309783</v>
       </c>
-      <c r="AZ16" s="8">
+      <c r="AZ16" s="6">
         <v>289660</v>
       </c>
-      <c r="BA16" s="8">
+      <c r="BA16" s="6">
         <v>304035</v>
       </c>
-      <c r="BB16" s="8">
+      <c r="BB16" s="6">
         <v>324712</v>
       </c>
-      <c r="BC16" s="8">
+      <c r="BC16" s="6">
         <v>326966</v>
       </c>
-      <c r="BD16" s="8">
+      <c r="BD16" s="6">
         <v>335960</v>
       </c>
-      <c r="BE16" s="8">
+      <c r="BE16" s="6">
         <v>392750</v>
       </c>
-      <c r="BF16" s="8">
+      <c r="BF16" s="6">
         <v>362553</v>
       </c>
-      <c r="BG16" s="10">
+      <c r="BG16" s="8">
         <v>361684</v>
       </c>
-      <c r="BH16" s="10">
+      <c r="BH16" s="8">
         <v>329190</v>
       </c>
-      <c r="BI16" s="13">
+      <c r="BI16" s="11">
         <v>318190</v>
       </c>
-      <c r="BJ16" s="15">
+      <c r="BJ16" s="13">
         <v>322871</v>
       </c>
-      <c r="BK16" s="15">
+      <c r="BK16" s="13">
         <v>256152</v>
       </c>
-      <c r="BL16" s="15">
+      <c r="BL16" s="13">
         <v>253075</v>
       </c>
-      <c r="BM16" s="15">
+      <c r="BM16" s="13">
         <v>278007</v>
       </c>
-      <c r="BN16" s="15">
+      <c r="BN16" s="13">
         <v>315832</v>
       </c>
-      <c r="BO16" s="15">
+      <c r="BO16" s="13">
         <v>321269</v>
       </c>
-      <c r="BP16" s="15">
+      <c r="BP16" s="13">
         <v>337162</v>
       </c>
-      <c r="BQ16" s="15">
+      <c r="BQ16" s="13">
         <v>331993</v>
       </c>
-      <c r="BR16" s="15">
+      <c r="BR16" s="13">
         <v>334244</v>
       </c>
-      <c r="BS16" s="15">
+      <c r="BS16" s="13">
         <v>334390</v>
       </c>
-      <c r="BT16" s="15">
+      <c r="BT16" s="13">
         <v>354412</v>
       </c>
+      <c r="BU16" s="13">
+        <v>337074</v>
+      </c>
     </row>
-    <row r="17" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="43">
         <v>117408</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>105303</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>115552</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>113889</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>110511</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>129734</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>135829</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>136094</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>118681</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>131175</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>118047</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="6">
         <v>122893</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="6">
         <v>110989</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="6">
         <v>110479</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <v>106645</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="6">
         <v>111642</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="6">
         <v>118401</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="6">
         <v>118639</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="6">
         <v>138603</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="6">
         <v>120803</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="6">
         <v>120845</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="6">
         <v>132994</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="6">
         <v>137100</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="6">
         <v>128793</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="6">
         <v>131370</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="6">
         <v>129955</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="6">
         <v>124927</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AC17" s="6">
         <v>118793</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AD17" s="6">
         <v>121234</v>
       </c>
-      <c r="AE17" s="8">
+      <c r="AE17" s="6">
         <v>136347</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17" s="6">
         <v>128455</v>
       </c>
-      <c r="AG17" s="8">
+      <c r="AG17" s="6">
         <v>125398</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AH17" s="6">
         <v>143811</v>
       </c>
-      <c r="AI17" s="8">
+      <c r="AI17" s="6">
         <v>126694</v>
       </c>
-      <c r="AJ17" s="8">
+      <c r="AJ17" s="6">
         <v>123368</v>
       </c>
-      <c r="AK17" s="8">
+      <c r="AK17" s="6">
         <v>131106</v>
       </c>
-      <c r="AL17" s="8">
+      <c r="AL17" s="6">
         <v>125309</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AM17" s="6">
         <v>123481</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="6">
         <v>131170</v>
       </c>
-      <c r="AO17" s="8">
+      <c r="AO17" s="6">
         <v>128852</v>
       </c>
-      <c r="AP17" s="8">
+      <c r="AP17" s="6">
         <v>125150</v>
       </c>
-      <c r="AQ17" s="8">
+      <c r="AQ17" s="6">
         <v>132755</v>
       </c>
-      <c r="AR17" s="8">
+      <c r="AR17" s="6">
         <v>121356</v>
       </c>
-      <c r="AS17" s="8">
+      <c r="AS17" s="6">
         <v>127759</v>
       </c>
-      <c r="AT17" s="8">
+      <c r="AT17" s="6">
         <v>136826</v>
       </c>
-      <c r="AU17" s="8">
+      <c r="AU17" s="6">
         <v>129089</v>
       </c>
-      <c r="AV17" s="8">
+      <c r="AV17" s="6">
         <v>136367</v>
       </c>
-      <c r="AW17" s="8">
+      <c r="AW17" s="6">
         <v>142506</v>
       </c>
-      <c r="AX17" s="8">
+      <c r="AX17" s="6">
         <v>152780</v>
       </c>
-      <c r="AY17" s="8">
+      <c r="AY17" s="6">
         <v>157316</v>
       </c>
-      <c r="AZ17" s="8">
+      <c r="AZ17" s="6">
         <v>157038</v>
       </c>
-      <c r="BA17" s="8">
+      <c r="BA17" s="6">
         <v>166725</v>
       </c>
-      <c r="BB17" s="8">
+      <c r="BB17" s="6">
         <v>184747</v>
       </c>
-      <c r="BC17" s="8">
+      <c r="BC17" s="6">
         <v>160933</v>
       </c>
-      <c r="BD17" s="8">
+      <c r="BD17" s="6">
         <v>177398</v>
       </c>
-      <c r="BE17" s="8">
+      <c r="BE17" s="6">
         <v>175307</v>
       </c>
-      <c r="BF17" s="8">
+      <c r="BF17" s="6">
         <v>164439</v>
       </c>
-      <c r="BG17" s="10">
+      <c r="BG17" s="8">
         <v>154879</v>
       </c>
-      <c r="BH17" s="10">
+      <c r="BH17" s="8">
         <v>152741</v>
       </c>
-      <c r="BI17" s="13">
+      <c r="BI17" s="11">
         <v>159043</v>
       </c>
-      <c r="BJ17" s="15">
+      <c r="BJ17" s="13">
         <v>155632</v>
       </c>
-      <c r="BK17" s="15">
+      <c r="BK17" s="13">
         <v>154740</v>
       </c>
-      <c r="BL17" s="15">
+      <c r="BL17" s="13">
         <v>159147</v>
       </c>
-      <c r="BM17" s="15">
+      <c r="BM17" s="13">
         <v>159238</v>
       </c>
-      <c r="BN17" s="15">
+      <c r="BN17" s="13">
         <v>168136</v>
       </c>
-      <c r="BO17" s="15">
+      <c r="BO17" s="13">
         <v>175584</v>
       </c>
-      <c r="BP17" s="15">
+      <c r="BP17" s="13">
         <v>171262</v>
       </c>
-      <c r="BQ17" s="15">
+      <c r="BQ17" s="13">
         <v>170600</v>
       </c>
-      <c r="BR17" s="15">
+      <c r="BR17" s="13">
         <v>164087</v>
       </c>
-      <c r="BS17" s="15">
+      <c r="BS17" s="13">
         <v>166018</v>
       </c>
-      <c r="BT17" s="15">
+      <c r="BT17" s="13">
         <v>158092</v>
       </c>
+      <c r="BU17" s="13">
+        <v>178602</v>
+      </c>
     </row>
-    <row r="18" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="43">
         <v>155819</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>158678</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>141924</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>146124</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>149070</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>158506</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>155283</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>167979</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>168999</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>186469</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>188801</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>210005</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="6">
         <v>196820</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="6">
         <v>190588</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="6">
         <v>173314</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="6">
         <v>171498</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="6">
         <v>190233</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="6">
         <v>174155</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="6">
         <v>193893</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="6">
         <v>194559</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="6">
         <v>196439</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="6">
         <v>215211</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="6">
         <v>214434</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="6">
         <v>215415</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="6">
         <v>224486</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA18" s="6">
         <v>230502</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB18" s="6">
         <v>231170</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AC18" s="6">
         <v>243893</v>
       </c>
-      <c r="AD18" s="8">
+      <c r="AD18" s="6">
         <v>243210</v>
       </c>
-      <c r="AE18" s="8">
+      <c r="AE18" s="6">
         <v>249177</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF18" s="6">
         <v>235673</v>
       </c>
-      <c r="AG18" s="8">
+      <c r="AG18" s="6">
         <v>242450</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AH18" s="6">
         <v>230665</v>
       </c>
-      <c r="AI18" s="8">
+      <c r="AI18" s="6">
         <v>263782</v>
       </c>
-      <c r="AJ18" s="8">
+      <c r="AJ18" s="6">
         <v>265396</v>
       </c>
-      <c r="AK18" s="8">
+      <c r="AK18" s="6">
         <v>259623</v>
       </c>
-      <c r="AL18" s="8">
+      <c r="AL18" s="6">
         <v>257510</v>
       </c>
-      <c r="AM18" s="8">
+      <c r="AM18" s="6">
         <v>271778</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="6">
         <v>287671</v>
       </c>
-      <c r="AO18" s="8">
+      <c r="AO18" s="6">
         <v>286390</v>
       </c>
-      <c r="AP18" s="8">
+      <c r="AP18" s="6">
         <v>290822</v>
       </c>
-      <c r="AQ18" s="8">
+      <c r="AQ18" s="6">
         <v>277075</v>
       </c>
-      <c r="AR18" s="8">
+      <c r="AR18" s="6">
         <v>303288</v>
       </c>
-      <c r="AS18" s="8">
+      <c r="AS18" s="6">
         <v>294248</v>
       </c>
-      <c r="AT18" s="8">
+      <c r="AT18" s="6">
         <v>273466</v>
       </c>
-      <c r="AU18" s="8">
+      <c r="AU18" s="6">
         <v>260884</v>
       </c>
-      <c r="AV18" s="8">
+      <c r="AV18" s="6">
         <v>279274</v>
       </c>
-      <c r="AW18" s="8">
+      <c r="AW18" s="6">
         <v>267172</v>
       </c>
-      <c r="AX18" s="8">
+      <c r="AX18" s="6">
         <v>274545</v>
       </c>
-      <c r="AY18" s="8">
+      <c r="AY18" s="6">
         <v>277347</v>
       </c>
-      <c r="AZ18" s="8">
+      <c r="AZ18" s="6">
         <v>307911</v>
       </c>
-      <c r="BA18" s="8">
+      <c r="BA18" s="6">
         <v>275030</v>
       </c>
-      <c r="BB18" s="8">
+      <c r="BB18" s="6">
         <v>291011</v>
       </c>
-      <c r="BC18" s="8">
+      <c r="BC18" s="6">
         <v>300047</v>
       </c>
-      <c r="BD18" s="8">
+      <c r="BD18" s="6">
         <v>298585</v>
       </c>
-      <c r="BE18" s="8">
+      <c r="BE18" s="6">
         <v>303066</v>
       </c>
-      <c r="BF18" s="8">
+      <c r="BF18" s="6">
         <v>320338</v>
       </c>
-      <c r="BG18" s="10">
+      <c r="BG18" s="8">
         <v>308602</v>
       </c>
-      <c r="BH18" s="10">
+      <c r="BH18" s="8">
         <v>320862</v>
       </c>
-      <c r="BI18" s="13">
+      <c r="BI18" s="11">
         <v>309747</v>
       </c>
-      <c r="BJ18" s="17">
+      <c r="BJ18" s="15">
         <v>337147</v>
       </c>
-      <c r="BK18" s="17">
+      <c r="BK18" s="15">
         <v>298299</v>
       </c>
-      <c r="BL18" s="17">
+      <c r="BL18" s="15">
         <v>306634</v>
       </c>
-      <c r="BM18" s="17">
+      <c r="BM18" s="15">
         <v>314201</v>
       </c>
-      <c r="BN18" s="17">
+      <c r="BN18" s="15">
         <v>322092</v>
       </c>
-      <c r="BO18" s="17">
+      <c r="BO18" s="15">
         <v>343143</v>
       </c>
-      <c r="BP18" s="17">
+      <c r="BP18" s="15">
         <v>340891</v>
       </c>
-      <c r="BQ18" s="17">
+      <c r="BQ18" s="15">
         <v>346249</v>
       </c>
-      <c r="BR18" s="17">
+      <c r="BR18" s="15">
         <v>320803</v>
       </c>
-      <c r="BS18" s="17">
+      <c r="BS18" s="15">
         <v>331121</v>
       </c>
-      <c r="BT18" s="17">
+      <c r="BT18" s="15">
         <v>334065</v>
       </c>
+      <c r="BU18" s="15">
+        <v>329524</v>
+      </c>
     </row>
-    <row r="19" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="43">
         <v>214138</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>218565</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>205127</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>213408</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>222919</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>211855</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>207763</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>221406</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>218412</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>226145</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>230864</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>255596</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="6">
         <v>243738</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="6">
         <v>243998</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="6">
         <v>230581</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="6">
         <v>236660</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="6">
         <v>226830</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="6">
         <v>206677</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="6">
         <v>204434</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="6">
         <v>222954</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="6">
         <v>202907</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="6">
         <v>248205</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="6">
         <v>232918</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Y19" s="6">
         <v>238962</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="6">
         <v>234663</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA19" s="6">
         <v>231010</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AB19" s="6">
         <v>236550</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AC19" s="6">
         <v>258150</v>
       </c>
-      <c r="AD19" s="8">
+      <c r="AD19" s="6">
         <v>240921</v>
       </c>
-      <c r="AE19" s="8">
+      <c r="AE19" s="6">
         <v>256038</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AF19" s="6">
         <v>257456</v>
       </c>
-      <c r="AG19" s="8">
+      <c r="AG19" s="6">
         <v>248787</v>
       </c>
-      <c r="AH19" s="8">
+      <c r="AH19" s="6">
         <v>249159</v>
       </c>
-      <c r="AI19" s="8">
+      <c r="AI19" s="6">
         <v>299461</v>
       </c>
-      <c r="AJ19" s="8">
+      <c r="AJ19" s="6">
         <v>292778</v>
       </c>
-      <c r="AK19" s="8">
+      <c r="AK19" s="6">
         <v>280500</v>
       </c>
-      <c r="AL19" s="8">
+      <c r="AL19" s="6">
         <v>260620</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AM19" s="6">
         <v>262514</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="6">
         <v>242058</v>
       </c>
-      <c r="AO19" s="8">
+      <c r="AO19" s="6">
         <v>249328</v>
       </c>
-      <c r="AP19" s="8">
+      <c r="AP19" s="6">
         <v>247147</v>
       </c>
-      <c r="AQ19" s="8">
+      <c r="AQ19" s="6">
         <v>265548</v>
       </c>
-      <c r="AR19" s="8">
+      <c r="AR19" s="6">
         <v>252952</v>
       </c>
-      <c r="AS19" s="8">
+      <c r="AS19" s="6">
         <v>265912</v>
       </c>
-      <c r="AT19" s="8">
+      <c r="AT19" s="6">
         <v>291665</v>
       </c>
-      <c r="AU19" s="8">
+      <c r="AU19" s="6">
         <v>290128</v>
       </c>
-      <c r="AV19" s="8">
+      <c r="AV19" s="6">
         <v>287380</v>
       </c>
-      <c r="AW19" s="8">
+      <c r="AW19" s="6">
         <v>311271</v>
       </c>
-      <c r="AX19" s="8">
+      <c r="AX19" s="6">
         <v>285796</v>
       </c>
-      <c r="AY19" s="8">
+      <c r="AY19" s="6">
         <v>301861</v>
       </c>
-      <c r="AZ19" s="8">
+      <c r="AZ19" s="6">
         <v>283246</v>
       </c>
-      <c r="BA19" s="8">
+      <c r="BA19" s="6">
         <v>304578</v>
       </c>
-      <c r="BB19" s="8">
+      <c r="BB19" s="6">
         <v>301806</v>
       </c>
-      <c r="BC19" s="8">
+      <c r="BC19" s="6">
         <v>300292</v>
       </c>
-      <c r="BD19" s="8">
+      <c r="BD19" s="6">
         <v>301450</v>
       </c>
-      <c r="BE19" s="8">
+      <c r="BE19" s="6">
         <v>284170</v>
       </c>
-      <c r="BF19" s="8">
+      <c r="BF19" s="6">
         <v>265389</v>
       </c>
-      <c r="BG19" s="10">
+      <c r="BG19" s="8">
         <v>271904</v>
       </c>
-      <c r="BH19" s="10">
+      <c r="BH19" s="8">
         <v>267098</v>
       </c>
-      <c r="BI19" s="13">
+      <c r="BI19" s="11">
         <v>263453</v>
       </c>
-      <c r="BJ19" s="17">
+      <c r="BJ19" s="15">
         <v>283499</v>
       </c>
-      <c r="BK19" s="17">
+      <c r="BK19" s="15">
         <v>287271</v>
       </c>
-      <c r="BL19" s="17">
+      <c r="BL19" s="15">
         <v>286249</v>
       </c>
-      <c r="BM19" s="17">
+      <c r="BM19" s="15">
         <v>305654</v>
       </c>
-      <c r="BN19" s="17">
+      <c r="BN19" s="15">
         <v>311305</v>
       </c>
-      <c r="BO19" s="17">
+      <c r="BO19" s="15">
         <v>319551</v>
       </c>
-      <c r="BP19" s="17">
+      <c r="BP19" s="15">
         <v>310073</v>
       </c>
-      <c r="BQ19" s="17">
+      <c r="BQ19" s="15">
         <v>311112</v>
       </c>
-      <c r="BR19" s="17">
+      <c r="BR19" s="15">
         <v>312942</v>
       </c>
-      <c r="BS19" s="17">
+      <c r="BS19" s="15">
         <v>276786</v>
       </c>
-      <c r="BT19" s="17">
+      <c r="BT19" s="15">
         <v>306335</v>
       </c>
+      <c r="BU19" s="15">
+        <v>275888</v>
+      </c>
     </row>
-    <row r="20" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="43">
         <v>355608</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>349540</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>314883</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>330758</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>312250</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>311871</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>302383</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>326356</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>316491</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>323870</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>314874</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>325412</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="6">
         <v>353040</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="6">
         <v>360049</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="6">
         <v>340703</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="6">
         <v>362418</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="6">
         <v>337080</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="6">
         <v>346645</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="6">
         <v>375994</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="6">
         <v>374702</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="6">
         <v>377621</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="6">
         <v>379863</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="6">
         <v>352400</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Y20" s="6">
         <v>377865</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="6">
         <v>365214</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AA20" s="6">
         <v>347173</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="6">
         <v>365150</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AC20" s="6">
         <v>337703</v>
       </c>
-      <c r="AD20" s="8">
+      <c r="AD20" s="6">
         <v>378028</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AE20" s="6">
         <v>384396</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="6">
         <v>388038</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AG20" s="6">
         <v>398323</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AH20" s="6">
         <v>407370</v>
       </c>
-      <c r="AI20" s="8">
+      <c r="AI20" s="6">
         <v>373148</v>
       </c>
-      <c r="AJ20" s="8">
+      <c r="AJ20" s="6">
         <v>368657</v>
       </c>
-      <c r="AK20" s="8">
+      <c r="AK20" s="6">
         <v>368961</v>
       </c>
-      <c r="AL20" s="8">
+      <c r="AL20" s="6">
         <v>370538</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AM20" s="6">
         <v>382294</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="6">
         <v>391885</v>
       </c>
-      <c r="AO20" s="8">
+      <c r="AO20" s="6">
         <v>384371</v>
       </c>
-      <c r="AP20" s="8">
+      <c r="AP20" s="6">
         <v>397828</v>
       </c>
-      <c r="AQ20" s="8">
+      <c r="AQ20" s="6">
         <v>362712</v>
       </c>
-      <c r="AR20" s="8">
+      <c r="AR20" s="6">
         <v>354951</v>
       </c>
-      <c r="AS20" s="8">
+      <c r="AS20" s="6">
         <v>363757</v>
       </c>
-      <c r="AT20" s="8">
+      <c r="AT20" s="6">
         <v>393831</v>
       </c>
-      <c r="AU20" s="8">
+      <c r="AU20" s="6">
         <v>380683</v>
       </c>
-      <c r="AV20" s="8">
+      <c r="AV20" s="6">
         <v>407679</v>
       </c>
-      <c r="AW20" s="8">
+      <c r="AW20" s="6">
         <v>399930</v>
       </c>
-      <c r="AX20" s="8">
+      <c r="AX20" s="6">
         <v>451811</v>
       </c>
-      <c r="AY20" s="8">
+      <c r="AY20" s="6">
         <v>435328</v>
       </c>
-      <c r="AZ20" s="8">
+      <c r="AZ20" s="6">
         <v>403947</v>
       </c>
-      <c r="BA20" s="8">
+      <c r="BA20" s="6">
         <v>395570</v>
       </c>
-      <c r="BB20" s="8">
+      <c r="BB20" s="6">
         <v>389021</v>
       </c>
-      <c r="BC20" s="8">
+      <c r="BC20" s="6">
         <v>392587</v>
       </c>
-      <c r="BD20" s="8">
+      <c r="BD20" s="6">
         <v>379517</v>
       </c>
-      <c r="BE20" s="8">
+      <c r="BE20" s="6">
         <v>389205</v>
       </c>
-      <c r="BF20" s="8">
+      <c r="BF20" s="6">
         <v>404777</v>
       </c>
-      <c r="BG20" s="10">
+      <c r="BG20" s="8">
         <v>417898</v>
       </c>
-      <c r="BH20" s="10">
+      <c r="BH20" s="8">
         <v>411636</v>
       </c>
-      <c r="BI20" s="13">
+      <c r="BI20" s="11">
         <v>430849</v>
       </c>
-      <c r="BJ20" s="17">
+      <c r="BJ20" s="15">
         <v>449416</v>
       </c>
-      <c r="BK20" s="17">
+      <c r="BK20" s="15">
         <v>359179</v>
       </c>
-      <c r="BL20" s="17">
+      <c r="BL20" s="15">
         <v>393012</v>
       </c>
-      <c r="BM20" s="17">
+      <c r="BM20" s="15">
         <v>413461</v>
       </c>
-      <c r="BN20" s="17">
+      <c r="BN20" s="15">
         <v>414151</v>
       </c>
-      <c r="BO20" s="17">
+      <c r="BO20" s="15">
         <v>390278</v>
       </c>
-      <c r="BP20" s="17">
+      <c r="BP20" s="15">
         <v>405115</v>
       </c>
-      <c r="BQ20" s="17">
+      <c r="BQ20" s="15">
         <v>403307</v>
       </c>
-      <c r="BR20" s="17">
+      <c r="BR20" s="15">
         <v>400293</v>
       </c>
-      <c r="BS20" s="17">
+      <c r="BS20" s="15">
         <v>396057</v>
       </c>
-      <c r="BT20" s="17">
+      <c r="BT20" s="15">
         <v>395040</v>
       </c>
+      <c r="BU20" s="15">
+        <v>440762</v>
+      </c>
     </row>
-    <row r="21" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="43">
         <v>104166</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>112158</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>108301</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>107432</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>108070</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>119606</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>107972</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>109179</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>106893</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>104636</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>125366</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>110903</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="6">
         <v>116328</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="6">
         <v>120814</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="6">
         <v>130689</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="6">
         <v>117107</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="6">
         <v>124117</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="6">
         <v>139082</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="6">
         <v>134357</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="6">
         <v>123411</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="6">
         <v>124137</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="6">
         <v>132784</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="6">
         <v>124920</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Y21" s="6">
         <v>113329</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="6">
         <v>124629</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21" s="6">
         <v>116882</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AB21" s="6">
         <v>110636</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AC21" s="6">
         <v>117243</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AD21" s="6">
         <v>123989</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AE21" s="6">
         <v>113239</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="6">
         <v>112276</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AG21" s="6">
         <v>109455</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AH21" s="6">
         <v>102648</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AI21" s="6">
         <v>118478</v>
       </c>
-      <c r="AJ21" s="8">
+      <c r="AJ21" s="6">
         <v>112676</v>
       </c>
-      <c r="AK21" s="8">
+      <c r="AK21" s="6">
         <v>117236</v>
       </c>
-      <c r="AL21" s="8">
+      <c r="AL21" s="6">
         <v>118675</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AM21" s="6">
         <v>122957</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="6">
         <v>101544</v>
       </c>
-      <c r="AO21" s="8">
+      <c r="AO21" s="6">
         <v>121275</v>
       </c>
-      <c r="AP21" s="8">
+      <c r="AP21" s="6">
         <v>116363</v>
       </c>
-      <c r="AQ21" s="8">
+      <c r="AQ21" s="6">
         <v>125049</v>
       </c>
-      <c r="AR21" s="8">
+      <c r="AR21" s="6">
         <v>116520</v>
       </c>
-      <c r="AS21" s="8">
+      <c r="AS21" s="6">
         <v>123363</v>
       </c>
-      <c r="AT21" s="8">
+      <c r="AT21" s="6">
         <v>123407</v>
       </c>
-      <c r="AU21" s="8">
+      <c r="AU21" s="6">
         <v>119204</v>
       </c>
-      <c r="AV21" s="8">
+      <c r="AV21" s="6">
         <v>110932</v>
       </c>
-      <c r="AW21" s="8">
+      <c r="AW21" s="6">
         <v>104990</v>
       </c>
-      <c r="AX21" s="8">
+      <c r="AX21" s="6">
         <v>116946</v>
       </c>
-      <c r="AY21" s="8">
+      <c r="AY21" s="6">
         <v>123357</v>
       </c>
-      <c r="AZ21" s="8">
+      <c r="AZ21" s="6">
         <v>125345</v>
       </c>
-      <c r="BA21" s="8">
+      <c r="BA21" s="6">
         <v>124976</v>
       </c>
-      <c r="BB21" s="8">
+      <c r="BB21" s="6">
         <v>125811</v>
       </c>
-      <c r="BC21" s="8">
+      <c r="BC21" s="6">
         <v>122284</v>
       </c>
-      <c r="BD21" s="8">
+      <c r="BD21" s="6">
         <v>121289</v>
       </c>
-      <c r="BE21" s="8">
+      <c r="BE21" s="6">
         <v>117335</v>
       </c>
-      <c r="BF21" s="8">
+      <c r="BF21" s="6">
         <v>105008</v>
       </c>
-      <c r="BG21" s="10">
+      <c r="BG21" s="8">
         <v>108096</v>
       </c>
-      <c r="BH21" s="10">
+      <c r="BH21" s="8">
         <v>109190</v>
       </c>
-      <c r="BI21" s="13">
+      <c r="BI21" s="11">
         <v>113231</v>
       </c>
-      <c r="BJ21" s="17">
+      <c r="BJ21" s="15">
         <v>114966</v>
       </c>
-      <c r="BK21" s="17">
+      <c r="BK21" s="15">
         <v>121998</v>
       </c>
-      <c r="BL21" s="17">
+      <c r="BL21" s="15">
         <v>130582</v>
       </c>
-      <c r="BM21" s="17">
+      <c r="BM21" s="15">
         <v>118945</v>
       </c>
-      <c r="BN21" s="17">
+      <c r="BN21" s="15">
         <v>110824</v>
       </c>
-      <c r="BO21" s="17">
+      <c r="BO21" s="15">
         <v>93271</v>
       </c>
-      <c r="BP21" s="17">
+      <c r="BP21" s="15">
         <v>93148</v>
       </c>
-      <c r="BQ21" s="17">
+      <c r="BQ21" s="15">
         <v>106609</v>
       </c>
-      <c r="BR21" s="17">
+      <c r="BR21" s="15">
         <v>108532</v>
       </c>
-      <c r="BS21" s="17">
+      <c r="BS21" s="15">
         <v>129739</v>
       </c>
-      <c r="BT21" s="17">
+      <c r="BT21" s="15">
         <v>118122</v>
       </c>
+      <c r="BU21" s="15">
+        <v>127627</v>
+      </c>
     </row>
-    <row r="22" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="41">
         <v>9555</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>6627</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>24629</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>10833</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>12972</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>12889</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <v>18780</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <v>10165</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="4">
         <v>16088</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>11655</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="4">
         <v>14010</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="4">
         <v>20023</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="4">
         <v>21858</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="4">
         <v>25997</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="4">
         <v>16911</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="4">
         <v>19954</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="4">
         <v>21872</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="4">
         <v>25483</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="4">
         <v>13669</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="4">
         <v>6567</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="4">
         <v>15112</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="4">
         <v>12642</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="4">
         <v>11921</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="4">
         <v>12533</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="4">
         <v>8495</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="4">
         <v>15058</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="4">
         <v>12110</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AC22" s="4">
         <v>13801</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AD22" s="4">
         <v>13758</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AE22" s="4">
         <v>22220</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AF22" s="4">
         <v>16034</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AG22" s="4">
         <v>19927</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AH22" s="4">
         <v>13677</v>
       </c>
-      <c r="AI22" s="6">
+      <c r="AI22" s="4">
         <v>10811</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AJ22" s="4">
         <v>9250</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AK22" s="4">
         <v>16783</v>
       </c>
-      <c r="AL22" s="6">
+      <c r="AL22" s="4">
         <v>15129</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AM22" s="4">
         <v>14356</v>
       </c>
-      <c r="AN22" s="6">
+      <c r="AN22" s="4">
         <v>14342</v>
       </c>
-      <c r="AO22" s="6">
+      <c r="AO22" s="4">
         <v>14681</v>
       </c>
-      <c r="AP22" s="6">
+      <c r="AP22" s="4">
         <v>12359</v>
       </c>
-      <c r="AQ22" s="6">
+      <c r="AQ22" s="4">
         <v>9913</v>
       </c>
-      <c r="AR22" s="6">
+      <c r="AR22" s="4">
         <v>6171</v>
       </c>
-      <c r="AS22" s="6">
+      <c r="AS22" s="4">
         <v>11461</v>
       </c>
-      <c r="AT22" s="6">
+      <c r="AT22" s="4">
         <v>8682</v>
       </c>
-      <c r="AU22" s="6">
+      <c r="AU22" s="4">
         <v>8751</v>
       </c>
-      <c r="AV22" s="6">
+      <c r="AV22" s="4">
         <v>9012</v>
       </c>
-      <c r="AW22" s="6">
+      <c r="AW22" s="4">
         <v>11427</v>
       </c>
-      <c r="AX22" s="6">
+      <c r="AX22" s="4">
         <v>9457</v>
       </c>
-      <c r="AY22" s="6">
+      <c r="AY22" s="4">
         <v>9247</v>
       </c>
-      <c r="AZ22" s="6">
+      <c r="AZ22" s="4">
         <v>14852</v>
       </c>
-      <c r="BA22" s="6">
+      <c r="BA22" s="4">
         <v>8590</v>
       </c>
-      <c r="BB22" s="6">
+      <c r="BB22" s="4">
         <v>11813</v>
       </c>
-      <c r="BC22" s="6">
+      <c r="BC22" s="4">
         <v>10553</v>
       </c>
-      <c r="BD22" s="6">
+      <c r="BD22" s="4">
         <v>22385</v>
       </c>
-      <c r="BE22" s="6">
+      <c r="BE22" s="4">
         <v>11041</v>
       </c>
-      <c r="BF22" s="6">
+      <c r="BF22" s="4">
         <v>10700</v>
       </c>
-      <c r="BG22" s="11">
+      <c r="BG22" s="9">
         <v>15092</v>
       </c>
-      <c r="BH22" s="11">
+      <c r="BH22" s="9">
         <v>23102</v>
       </c>
-      <c r="BI22" s="12">
+      <c r="BI22" s="10">
         <v>16731</v>
       </c>
-      <c r="BJ22" s="18">
+      <c r="BJ22" s="16">
         <v>16263</v>
       </c>
-      <c r="BK22" s="18">
+      <c r="BK22" s="16">
         <v>7585</v>
       </c>
-      <c r="BL22" s="18">
+      <c r="BL22" s="16">
         <v>19075</v>
       </c>
-      <c r="BM22" s="18">
+      <c r="BM22" s="16">
         <v>16683</v>
       </c>
-      <c r="BN22" s="18">
+      <c r="BN22" s="16">
         <v>22947</v>
       </c>
-      <c r="BO22" s="18">
+      <c r="BO22" s="16">
         <v>28602</v>
       </c>
-      <c r="BP22" s="18">
+      <c r="BP22" s="16">
         <v>18860</v>
       </c>
-      <c r="BQ22" s="18">
+      <c r="BQ22" s="16">
         <v>22177</v>
       </c>
-      <c r="BR22" s="18">
+      <c r="BR22" s="16">
         <v>17379</v>
       </c>
-      <c r="BS22" s="18">
+      <c r="BS22" s="16">
         <v>23516</v>
       </c>
-      <c r="BT22" s="18">
+      <c r="BT22" s="16">
         <v>18355</v>
       </c>
+      <c r="BU22" s="16">
+        <v>18814</v>
+      </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="38"/>
-      <c r="AV23" s="38"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="38"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="38"/>
-      <c r="BC23" s="38"/>
-      <c r="BD23" s="38"/>
-      <c r="BE23" s="38"/>
-      <c r="BF23" s="38"/>
-      <c r="BG23" s="38"/>
-      <c r="BH23" s="38"/>
-      <c r="BI23" s="38"/>
-      <c r="BJ23" s="38"/>
-      <c r="BK23" s="38"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="35"/>
+      <c r="AX23" s="35"/>
+      <c r="AY23" s="35"/>
+      <c r="AZ23" s="35"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="35"/>
+      <c r="BC23" s="35"/>
+      <c r="BD23" s="35"/>
+      <c r="BE23" s="35"/>
+      <c r="BF23" s="35"/>
+      <c r="BG23" s="35"/>
+      <c r="BH23" s="35"/>
+      <c r="BI23" s="35"/>
+      <c r="BJ23" s="35"/>
+      <c r="BK23" s="35"/>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A23:BK23"/>
@@ -5489,11 +5614,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955C89B-0681-4F5C-9465-F5DFC138EB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEBAC2B-41E0-4214-A850-EE2EAFDCB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pob ocupada sector" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -120,7 +131,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2023</t>
+    <t>I trimestre 2005 - II trimestre de 2023</t>
   </si>
 </sst>
 </file>
@@ -936,6 +947,23 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,28 +983,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="37" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,9 +1045,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1076,9 +1085,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1111,26 +1120,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1163,26 +1155,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1356,11 +1331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU25"/>
+  <dimension ref="A1:BV25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BZ16" sqref="BZ16"/>
+      <selection pane="topRight" activeCell="BU28" sqref="BU28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1437,10 +1412,11 @@
     <col min="70" max="70" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.77734375" customWidth="1"/>
+    <col min="73" max="73" width="15" customWidth="1"/>
+    <col min="74" max="74" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1502,189 +1478,190 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="41">
         <v>2005</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38">
         <v>2006</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38">
         <v>2007</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38">
         <v>2008</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37">
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38">
         <v>2009</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38">
         <v>2010</v>
       </c>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37">
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38">
         <v>2011</v>
       </c>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37">
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38">
         <v>2012</v>
       </c>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37">
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38">
         <v>2013</v>
       </c>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37">
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38">
         <v>2014</v>
       </c>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37">
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37">
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38">
         <v>2016</v>
       </c>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37">
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38">
         <v>2017</v>
       </c>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37">
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38">
         <v>2018</v>
       </c>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37">
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38">
         <v>2019</v>
       </c>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37">
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38">
         <v>2020</v>
       </c>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="32">
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="39">
         <v>2021</v>
       </c>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="33"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="32">
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="39">
         <v>2022</v>
       </c>
-      <c r="BR4" s="33"/>
-      <c r="BS4" s="33"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="31">
-        <v>2022</v>
-      </c>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="39">
+        <v>2023</v>
+      </c>
+      <c r="BV4" s="41"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1900,9 +1877,12 @@
       <c r="BU5" s="18" t="s">
         <v>1</v>
       </c>
+      <c r="BV5" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19"/>
@@ -1976,13 +1956,14 @@
       <c r="BR6" s="19"/>
       <c r="BS6" s="19"/>
       <c r="BT6" s="19"/>
-      <c r="BU6" s="45"/>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="37"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="32">
         <v>2844479</v>
       </c>
       <c r="C7" s="22">
@@ -2198,12 +2179,15 @@
       <c r="BU7" s="12">
         <v>4107726</v>
       </c>
+      <c r="BV7" s="12">
+        <v>4077856</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="33">
         <v>279698</v>
       </c>
       <c r="C8" s="4">
@@ -2419,12 +2403,15 @@
       <c r="BU8" s="14">
         <v>410507</v>
       </c>
+      <c r="BV8" s="14">
+        <v>367477</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="34">
         <v>279698</v>
       </c>
       <c r="C9" s="26">
@@ -2640,12 +2627,15 @@
       <c r="BU9" s="20">
         <v>410507</v>
       </c>
+      <c r="BV9" s="20">
+        <v>367477</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="33">
         <v>812917</v>
       </c>
       <c r="C10" s="4">
@@ -2861,12 +2851,15 @@
       <c r="BU10" s="14">
         <v>1138003</v>
       </c>
+      <c r="BV10" s="14">
+        <v>1098166</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="35">
         <v>15445</v>
       </c>
       <c r="C11" s="6">
@@ -3082,12 +3075,15 @@
       <c r="BU11" s="13">
         <v>12951</v>
       </c>
+      <c r="BV11" s="13">
+        <v>14668</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="35">
         <v>559563</v>
       </c>
       <c r="C12" s="6">
@@ -3303,12 +3299,15 @@
       <c r="BU12" s="13">
         <v>785721</v>
       </c>
+      <c r="BV12" s="13">
+        <v>778224</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="35">
         <v>237909</v>
       </c>
       <c r="C13" s="6">
@@ -3524,12 +3523,15 @@
       <c r="BU13" s="13">
         <v>339331</v>
       </c>
+      <c r="BV13" s="13">
+        <v>305274</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="33">
         <v>1742309</v>
       </c>
       <c r="C14" s="4">
@@ -3745,12 +3747,15 @@
       <c r="BU14" s="14">
         <v>2540402</v>
       </c>
+      <c r="BV14" s="14">
+        <v>2599007</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="35">
         <v>587376</v>
       </c>
       <c r="C15" s="6">
@@ -3966,12 +3971,15 @@
       <c r="BU15" s="13">
         <v>850925</v>
       </c>
+      <c r="BV15" s="13">
+        <v>864385</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="35">
         <v>207794</v>
       </c>
       <c r="C16" s="6">
@@ -4187,12 +4195,15 @@
       <c r="BU16" s="13">
         <v>337074</v>
       </c>
+      <c r="BV16" s="13">
+        <v>358701</v>
+      </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="35">
         <v>117408</v>
       </c>
       <c r="C17" s="6">
@@ -4408,12 +4419,15 @@
       <c r="BU17" s="13">
         <v>178602</v>
       </c>
+      <c r="BV17" s="13">
+        <v>185806</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="35">
         <v>155819</v>
       </c>
       <c r="C18" s="6">
@@ -4629,12 +4643,15 @@
       <c r="BU18" s="15">
         <v>329524</v>
       </c>
+      <c r="BV18" s="15">
+        <v>307800</v>
+      </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="35">
         <v>214138</v>
       </c>
       <c r="C19" s="6">
@@ -4850,12 +4867,15 @@
       <c r="BU19" s="15">
         <v>275888</v>
       </c>
+      <c r="BV19" s="15">
+        <v>306089</v>
+      </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="35">
         <v>355608</v>
       </c>
       <c r="C20" s="6">
@@ -5071,12 +5091,15 @@
       <c r="BU20" s="15">
         <v>440762</v>
       </c>
+      <c r="BV20" s="15">
+        <v>440387</v>
+      </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="35">
         <v>104166</v>
       </c>
       <c r="C21" s="6">
@@ -5292,12 +5315,15 @@
       <c r="BU21" s="15">
         <v>127627</v>
       </c>
+      <c r="BV21" s="15">
+        <v>135839</v>
+      </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="33">
         <v>9555</v>
       </c>
       <c r="C22" s="4">
@@ -5513,91 +5539,92 @@
       <c r="BU22" s="16">
         <v>18814</v>
       </c>
+      <c r="BV22" s="16">
+        <v>13206</v>
+      </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="35"/>
-      <c r="BC23" s="35"/>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="35"/>
-      <c r="BI23" s="35"/>
-      <c r="BJ23" s="35"/>
-      <c r="BK23" s="35"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="42"/>
+      <c r="BG23" s="42"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="42"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="42"/>
+      <c r="BV23" s="45"/>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="BV24" s="45"/>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
+  <mergeCells count="22">
+    <mergeCell ref="BU4:BV4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A23:BK23"/>
@@ -5614,6 +5641,11 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_sector.xlsx
+++ b/Historicos/pobocup_sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEBAC2B-41E0-4214-A850-EE2EAFDCB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE0842-FFD8-4DA2-9C57-61E3C7BF0B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
   <si>
     <t>Indicadores</t>
   </si>
@@ -131,7 +131,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2023</t>
+    <t>I trimestre 2005 - III trimestre de 2023</t>
   </si>
 </sst>
 </file>
@@ -964,16 +964,14 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -983,9 +981,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1331,11 +1331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV25"/>
+  <dimension ref="A1:BW25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU28" sqref="BU28"/>
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BX9" sqref="BX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,9 +1414,10 @@
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="15" customWidth="1"/>
     <col min="74" max="74" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1478,12 +1479,12 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -1543,124 +1544,125 @@
       <c r="BE3" s="43"/>
       <c r="BF3" s="43"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>2005</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44">
         <v>2006</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44">
         <v>2007</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44">
         <v>2008</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38">
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44">
         <v>2009</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38">
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44">
         <v>2010</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38">
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44">
         <v>2011</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44">
         <v>2012</v>
       </c>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38">
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44">
         <v>2013</v>
       </c>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38">
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44">
         <v>2014</v>
       </c>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38">
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38">
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44">
         <v>2016</v>
       </c>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38">
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44">
         <v>2017</v>
       </c>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38">
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44">
         <v>2018</v>
       </c>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38">
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44">
         <v>2019</v>
       </c>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38">
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="44">
         <v>2020</v>
       </c>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="38"/>
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="44"/>
       <c r="BM4" s="39">
         <v>2021</v>
       </c>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="40"/>
       <c r="BQ4" s="39">
         <v>2022</v>
       </c>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="40"/>
       <c r="BU4" s="39">
         <v>2023</v>
       </c>
       <c r="BV4" s="41"/>
+      <c r="BW4" s="40"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
       <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1880,8 +1882,11 @@
       <c r="BV5" s="18" t="s">
         <v>2</v>
       </c>
+      <c r="BW5" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -1957,9 +1962,10 @@
       <c r="BS6" s="19"/>
       <c r="BT6" s="19"/>
       <c r="BU6" s="19"/>
-      <c r="BV6" s="37"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="37"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -2182,8 +2188,11 @@
       <c r="BV7" s="12">
         <v>4077856</v>
       </c>
+      <c r="BW7" s="12">
+        <v>3996628</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2406,8 +2415,11 @@
       <c r="BV8" s="14">
         <v>367477</v>
       </c>
+      <c r="BW8" s="14">
+        <v>385397</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
@@ -2630,8 +2642,11 @@
       <c r="BV9" s="20">
         <v>367477</v>
       </c>
+      <c r="BW9" s="20">
+        <v>385397</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2854,8 +2869,11 @@
       <c r="BV10" s="14">
         <v>1098166</v>
       </c>
+      <c r="BW10" s="14">
+        <v>1029016</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -3078,8 +3096,11 @@
       <c r="BV11" s="13">
         <v>14668</v>
       </c>
+      <c r="BW11" s="13">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -3302,8 +3323,11 @@
       <c r="BV12" s="13">
         <v>778224</v>
       </c>
+      <c r="BW12" s="13">
+        <v>708316</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -3526,8 +3550,11 @@
       <c r="BV13" s="13">
         <v>305274</v>
       </c>
+      <c r="BW13" s="13">
+        <v>311100</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3750,8 +3777,11 @@
       <c r="BV14" s="14">
         <v>2599007</v>
       </c>
+      <c r="BW14" s="14">
+        <v>2573303</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -3974,8 +4004,11 @@
       <c r="BV15" s="13">
         <v>864385</v>
       </c>
+      <c r="BW15" s="13">
+        <v>861421</v>
+      </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -4198,8 +4231,11 @@
       <c r="BV16" s="13">
         <v>358701</v>
       </c>
+      <c r="BW16" s="13">
+        <v>337898</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -4422,8 +4458,11 @@
       <c r="BV17" s="13">
         <v>185806</v>
       </c>
+      <c r="BW17" s="13">
+        <v>187928</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -4646,8 +4685,11 @@
       <c r="BV18" s="15">
         <v>307800</v>
       </c>
+      <c r="BW18" s="15">
+        <v>330006</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -4870,8 +4912,11 @@
       <c r="BV19" s="15">
         <v>306089</v>
       </c>
+      <c r="BW19" s="15">
+        <v>305966</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -5094,8 +5139,11 @@
       <c r="BV20" s="15">
         <v>440387</v>
       </c>
+      <c r="BW20" s="15">
+        <v>448607</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -5318,8 +5366,11 @@
       <c r="BV21" s="15">
         <v>135839</v>
       </c>
+      <c r="BW21" s="15">
+        <v>101477</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -5542,8 +5593,11 @@
       <c r="BV22" s="16">
         <v>13206</v>
       </c>
+      <c r="BW22" s="16">
+        <v>8912</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>24</v>
       </c>
@@ -5609,22 +5663,28 @@
       <c r="BI23" s="42"/>
       <c r="BJ23" s="42"/>
       <c r="BK23" s="42"/>
-      <c r="BV23" s="45"/>
+      <c r="BW23" s="38"/>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="BV24" s="45"/>
+      <c r="BW24" s="38"/>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BU4:BW4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A23:BK23"/>
@@ -5640,12 +5700,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
